--- a/src/static/xlsx/df_api_symbol_xlsx.xlsx
+++ b/src/static/xlsx/df_api_symbol_xlsx.xlsx
@@ -493,7 +493,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1642276830732.3343898119010200</t>
+          <t>1645600371530.6442755914265066</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>220315687990.1300878538114379</t>
+          <t>221238742768.5913530967335473</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>144637948666.0738495664826784</t>
+          <t>144656039999.9366479492830614</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>124193731580.8581745338545244</t>
+          <t>124997297363.8779204833653026</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>86866258453.5594316722066230</t>
+          <t>87163354463.4157238705464440</t>
         </is>
       </c>
     </row>
@@ -653,7 +653,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>63804909548.4776716514651909</t>
+          <t>64106576736.5184495031453656</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60284062493.2111222388677802</t>
+          <t>60326188982.8522269574726117</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>25180363309.6744831424998855</t>
+          <t>25323753239.1835317661563318</t>
         </is>
       </c>
     </row>
@@ -749,7 +749,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>23680282911.5580111396478428</t>
+          <t>23771977841.4471850239419746</t>
         </is>
       </c>
     </row>
@@ -781,7 +781,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>21887355373.5168314006622070</t>
+          <t>21875136033.2702502834964841</t>
         </is>
       </c>
     </row>
@@ -813,7 +813,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>17116264453.3549580735404993</t>
+          <t>17108030022.0500621826818085</t>
         </is>
       </c>
     </row>
@@ -845,7 +845,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10605052376.4772475140874713</t>
+          <t>10622166943.4478589432961556</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9080962253.2296334377752034</t>
+          <t>9118365895.6041472765326977</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8869962097.6493870353620750</t>
+          <t>8908742037.0967770360407129</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8852247791.7971535139126659</t>
+          <t>8861972999.7187600514796678</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8206864620.5955722910531571</t>
+          <t>8236068214.6058648044301618</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8111662430.8697341617804530</t>
+          <t>8167767101.3844922988942224</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7453985058.4374016368043096</t>
+          <t>7487771074.9913127067659214</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7281135341.2547985003205891</t>
+          <t>7319371445.2538029592242559</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7249520690.4727379307012952</t>
+          <t>7291815763.0727263280639646</t>
         </is>
       </c>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6447942459.4845534504239826</t>
+          <t>6469254257.0149880701896458</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6163796632.4147077597958880</t>
+          <t>6211954278.5391776717943300</t>
         </is>
       </c>
     </row>
@@ -1193,7 +1193,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6150310714.8859548383101512</t>
+          <t>6144102402.9310631778808316</t>
         </is>
       </c>
     </row>
@@ -1225,7 +1225,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6080143891.8064622283295659</t>
+          <t>6104196066.7293727320696468</t>
         </is>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>5996415302.3583771938821575</t>
+          <t>6023188746.3479994497551575</t>
         </is>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5564729643.5016892800000000</t>
+          <t>5577893743.8175652400000000</t>
         </is>
       </c>
     </row>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5394558898.9775256165413737</t>
+          <t>5406233793.7494721118674033</t>
         </is>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5363423550.0232720008136197</t>
+          <t>5364422326.3378411111389745</t>
         </is>
       </c>
     </row>
@@ -1385,7 +1385,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5245402824.3223392019404640</t>
+          <t>5245728803.7280329393707867</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4265537516.5271337707089120</t>
+          <t>4298824719.0012374183297740</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3996412044.1427482446225142</t>
+          <t>3993800282.9340974800817414</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3743953672.9985901017986694</t>
+          <t>3769326792.3955632119224379</t>
         </is>
       </c>
     </row>
@@ -1513,7 +1513,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3144267079.9166875649588801</t>
+          <t>3154710197.9810056551877096</t>
         </is>
       </c>
     </row>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3074695573.4546550839972800</t>
+          <t>3097008436.6592812081353600</t>
         </is>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3016120032.4001124674323061</t>
+          <t>3029773532.5168219759114819</t>
         </is>
       </c>
     </row>
@@ -1609,7 +1609,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2891058427.1569834140000000</t>
+          <t>2891620175.4399099420000000</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2761789532.6004704510011088</t>
+          <t>2790157658.1501046850958512</t>
         </is>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2693091084.3050858058504938</t>
+          <t>2699961505.2057555335563040</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2584307908.3590404379957619</t>
+          <t>2584061240.9943523653083949</t>
         </is>
       </c>
     </row>
@@ -1733,7 +1733,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2575231672.3821737105215821</t>
+          <t>2581685391.1439520595162100</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2527770560.6517465495049223</t>
+          <t>2549908349.0321047639046086</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2514655646.7074704921465758</t>
+          <t>2531820394.5145716138260667</t>
         </is>
       </c>
     </row>
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2506338632.4158429593908971</t>
+          <t>2516755433.8775290546824364</t>
         </is>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2101811268.7793260065387828</t>
+          <t>2109448878.9105546162727262</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2007624216.0404274013968040</t>
+          <t>2017932366.9006062675018450</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1959036832.3391614716912014</t>
+          <t>1972372076.7056276660095994</t>
         </is>
       </c>
     </row>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1956043997.5495399694629452</t>
+          <t>1968864590.6431538780648340</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1921068080.4953683129687500</t>
+          <t>1931516772.0549792309375000</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1909225300.1006697026045044</t>
+          <t>1914050754.4524487211698307</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1854812579.7276626023864738</t>
+          <t>1861481627.6244087027573087</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1791913807.9442281661504892</t>
+          <t>1801854633.9552019550775493</t>
         </is>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1759276099.3916992444197489</t>
+          <t>1767555384.7792514227107219</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1663046554.1000661132295953</t>
+          <t>1667781804.2086878000182569</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1645421599.2988718890375268</t>
+          <t>1654706339.0678902770221032</t>
         </is>
       </c>
     </row>
@@ -2201,7 +2201,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1564416325.3422081325001943</t>
+          <t>1572698970.0981830710708801</t>
         </is>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1532111846.8262972989014288</t>
+          <t>1541312353.2150975275048328</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1471009833.8946186504668323</t>
+          <t>1467334025.4275592598641476</t>
         </is>
       </c>
     </row>
@@ -2297,7 +2297,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1396749109.6659824640000000</t>
+          <t>1410827960.6605581120000000</t>
         </is>
       </c>
     </row>
@@ -2329,7 +2329,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1355378390.4160754294409327</t>
+          <t>1369938502.8672657170340568</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1354300696.2258215326062472</t>
+          <t>1356745023.4707309026682201</t>
         </is>
       </c>
     </row>
@@ -2393,7 +2393,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1276622302.3534521323596707</t>
+          <t>1283915640.4706094607607447</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1238722561.7362119139422342</t>
+          <t>1246676762.6033562908945136</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1183404746.0039250600000000</t>
+          <t>1191234770.1155109600000000</t>
         </is>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1089956532.9898834400000000</t>
+          <t>1099987973.7117743500000000</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1088805017.1662230584976032</t>
+          <t>1097148630.1213933849797655</t>
         </is>
       </c>
     </row>
@@ -2549,7 +2549,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1070235050.6933275986867364</t>
+          <t>1070156987.8680359581709838</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>969945715.5151663799052235</t>
+          <t>976331197.3122773245312771</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>955777804.7163516257798949</t>
+          <t>961915715.5932057785932830</t>
         </is>
       </c>
     </row>
@@ -2641,7 +2641,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>945439887.7417553660275009</t>
+          <t>951874736.5640840923995073</t>
         </is>
       </c>
     </row>
@@ -2669,7 +2669,7 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>938162826.3570093276582644</t>
+          <t>944028010.9010396970519914</t>
         </is>
       </c>
     </row>
@@ -2701,7 +2701,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>898582440.8637155838094735</t>
+          <t>898582459.0946837021955001</t>
         </is>
       </c>
     </row>
@@ -2729,7 +2729,7 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>879367556.4720158196439198</t>
+          <t>885191982.2847630618795874</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>877503390.8380560797029018</t>
+          <t>882390168.3221567905715871</t>
         </is>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>866682483.2987570627533135</t>
+          <t>873887205.0400928502751168</t>
         </is>
       </c>
     </row>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>863736757.2105519742915436</t>
+          <t>868354716.6944952243536303</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>846394498.1122892877531639</t>
+          <t>851562953.7912270973863332</t>
         </is>
       </c>
     </row>
@@ -2885,7 +2885,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>837544565.9016666718752774</t>
+          <t>840759571.2912169595663004</t>
         </is>
       </c>
     </row>
@@ -2917,7 +2917,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>830700432.0442866000000000</t>
+          <t>836039972.3196338000000000</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2945,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>825838935.7071435265531241</t>
+          <t>830198277.1416908051489310</t>
         </is>
       </c>
     </row>
@@ -2977,7 +2977,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>805593933.4842965288967364</t>
+          <t>806973804.9338775850067293</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>801475978.0584303065416922</t>
+          <t>801516669.7799929918057961</t>
         </is>
       </c>
     </row>
@@ -3037,7 +3037,7 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>791207013.5010093493960000</t>
+          <t>795127890.3225529802920000</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>781449503.6739119553681474</t>
+          <t>788485386.8367231244493098</t>
         </is>
       </c>
     </row>
@@ -3101,7 +3101,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>767648058.8995042616996928</t>
+          <t>767629346.5031013806052952</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>695207449.5693101908256164</t>
+          <t>696775670.0897274689012979</t>
         </is>
       </c>
     </row>
@@ -3165,19 +3165,19 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>680466704.6965870601872505</t>
+          <t>684048671.4149622103839897</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>Gala</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3187,29 +3187,29 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>1036827531.6780720000000000</t>
+          <t>43744189534.5928200000000000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>673099222.5390466155562326</t>
+          <t>675934600.2598317924475358</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>Tezos</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3219,17 +3219,17 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>43744189534.5928200000000000</t>
+          <t>1036827531.6780720000000000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>670480474.9964383622693059</t>
+          <t>673831428.5401824338962507</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>667527677.0504419528455423</t>
+          <t>670010329.3811026259130289</t>
         </is>
       </c>
     </row>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>663160189.2517588379211000</t>
+          <t>663315970.4451091582092000</t>
         </is>
       </c>
     </row>
@@ -3325,7 +3325,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>656029891.6018939970333274</t>
+          <t>656440612.0699848713241346</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>637997008.7857012979970624</t>
+          <t>643333898.4821957136702312</t>
         </is>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>637312770.9953671654822282</t>
+          <t>642893675.9930117469782132</t>
         </is>
       </c>
     </row>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>617727453.2532327684595247</t>
+          <t>618550480.8274129470079088</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>610361810.1630304523995784</t>
+          <t>612140479.4307130801030151</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>600168847.8462108434084566</t>
+          <t>603786260.1301708746558791</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>592840899.7288378814639338</t>
+          <t>594222462.9006889619505658</t>
         </is>
       </c>
     </row>
@@ -3549,7 +3549,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>575645728.9507641333462936</t>
+          <t>579262544.1824133479025006</t>
         </is>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>567468878.4366171013410829</t>
+          <t>572038782.6309731994196095</t>
         </is>
       </c>
     </row>
@@ -3613,7 +3613,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>561547096.6227401567937691</t>
+          <t>565351361.5889217448536238</t>
         </is>
       </c>
     </row>

--- a/src/static/xlsx/df_api_symbol_xlsx.xlsx
+++ b/src/static/xlsx/df_api_symbol_xlsx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,27 +441,37 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>symbol</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>rank</t>
+          <t>maxSupply</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>supply</t>
+          <t>priceUsd</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>explorer</t>
+          <t>volumeUsd24Hr</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>marketCapUsd</t>
+          <t>changePercent24Hr</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>vwap24Hr</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
         </is>
       </c>
     </row>
@@ -473,28 +483,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bitcoin</t>
+          <t>BTC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21000000.0000000000000000</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19843837.0000000000000000</t>
+          <t>82916.7884827325688591</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://blockchain.info/</t>
+          <t>5718748127.1528516033442327</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1645600371530.6442755914265066</t>
-        </is>
+          <t>0.4401747280786942</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>82791.3842202897238302</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="3">
@@ -505,28 +523,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ethereum</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+          <t>ETH</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>120651811.6664275200000000</t>
+          <t>1818.8076237170217083</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://etherscan.io/</t>
+          <t>4766428019.3459411165197428</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>221238742768.5913530967335473</t>
-        </is>
+          <t>-1.3563933435731850</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1825.8535093424786455</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="4">
@@ -537,28 +559,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tether</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+          <t>USDT</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>144182349120.7869600000000000</t>
+          <t>1.0020125849348224</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.omniexplorer.info/asset/31</t>
+          <t>18307782667.4688571644720034</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>144656039999.9366479492830614</t>
-        </is>
+          <t>0.0086347766169269</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.0002823425646397</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="5">
@@ -574,23 +600,31 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>100000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>58205697378.0000000000000000</t>
+          <t>2.1497644567582078</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://xrpcharts.ripple.com/#/graph/</t>
+          <t>1238750853.4358423662315195</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>124997297363.8779204833653026</t>
-        </is>
+          <t>1.5159096818527332</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.1515863032611537</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="6">
@@ -606,23 +640,31 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>144006830.0000000000000000</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>144006830.0000000000000000</t>
+          <t>604.6613195400000179</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xB8c77482e45F1F44dE1745F52C74426C631bDD52</t>
+          <t>255971674.4396049080707602</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>87163354463.4157238705464440</t>
-        </is>
+          <t>-0.2590069306687397</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>605.3547296331083335</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="7">
@@ -633,28 +675,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Solana</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+          <t>SOL</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>512024735.6993850000000000</t>
+          <t>125.2672204508401971</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/</t>
+          <t>1030343021.0930431740770552</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>64106576736.5184495031453656</t>
-        </is>
+          <t>-0.7470015985162058</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>124.9818949943009180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="8">
@@ -668,25 +714,29 @@
           <t>USDC</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>60249163069.5058300000000000</t>
+          <t>1.0003507029207151</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b86991c6218b36c1d19d4a2e9eb0ce3606eb48</t>
+          <t>3212131486.3803947144172163</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>60326188982.8522269574726117</t>
-        </is>
+          <t>-0.0270781050692053</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0015822519802545</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="9">
@@ -697,28 +747,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dogecoin</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
+          <t>DOGE</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>148636156383.7052300000000000</t>
+          <t>0.1694808953819348</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://dogechain.info/chain/Dogecoin</t>
+          <t>441209058.9153757065191887</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>25323753239.1835317661563318</t>
-        </is>
+          <t>-0.7349720309518281</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1695603448885122</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="10">
@@ -729,28 +783,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>ADA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>45000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>35242104181.1897300000000000</t>
+          <t>0.6731510345988975</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://cardanoexplorer.com/</t>
+          <t>229640964.0885899315699713</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>23771977841.4471850239419746</t>
-        </is>
+          <t>0.0674625960801444</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6739562499198983</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="11">
@@ -761,28 +823,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>TRON</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
+          <t>TRX</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94994333235.4930700000000000</t>
+          <t>0.2307035262481634</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/</t>
+          <t>237089279.7413524358328388</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>21875136033.2702502834964841</t>
-        </is>
+          <t>-1.6395153608264012</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2320953549970309</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="12">
@@ -793,28 +859,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lido Staked ETH</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
+          <t>STETH</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9370397.4741040600000000</t>
+          <t>1816.2458483800763078</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xae7ab96520de3a18e5e111b5eaab095312d7fe84</t>
+          <t>6260068.3419517004753704</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>17108030022.0500621826818085</t>
-        </is>
+          <t>-1.4069402425700687</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1832.9886302838556275</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="13">
@@ -825,28 +895,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Wrapped Bitcoin</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
+          <t>WBTC</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>129077.4055218900000000</t>
+          <t>82112.0183876590350267</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x2260fac5e5542a773aa44fbcfedf7c193bc2c599</t>
+          <t>107738586.7663614385666362</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>10622166943.4478589432961556</t>
-        </is>
+          <t>-0.3333061838342018</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>82981.7007507780351351</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="14">
@@ -857,24 +931,32 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Toncoin</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
+          <t>TON</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2484481290.2083545000000000</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>3.8127405714776245</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>116254527.9634560824456334</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>9118365895.6041472765326977</t>
-        </is>
+          <t>3.1863733089884897</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.7655672859094817</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="15">
@@ -885,28 +967,32 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Chainlink</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
+          <t>LINK</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>657099970.4527867000000000</t>
+          <t>13.6335376890376460</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>135506293.4273732830841045</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>8908742037.0967770360407129</t>
-        </is>
+          <t>-0.4597095166511734</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>13.6120301627217862</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="16">
@@ -917,28 +1003,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
+          <t>LEO</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>923842242.9000000000000000</t>
+          <t>9.6357253283080724</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
+          <t>5023166.8719188923953401</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>8861972999.7187600514796678</t>
-        </is>
+          <t>0.1144331361562571</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>9.5406858729989225</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="17">
@@ -949,28 +1039,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>50001806812.0000000000000000</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>30787183949.8020600000000000</t>
+          <t>0.2684616527897720</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://dashboard.stellar.org/</t>
+          <t>53000727.5913387874859268</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>8236068214.6058648044301618</t>
-        </is>
+          <t>0.2747258630171079</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2676661239757318</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="18">
@@ -981,92 +1079,116 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>715748719.0000000000000000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>414842518.6643743000000000</t>
+          <t>19.4087907780726472</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://avascan.info/</t>
+          <t>123599458.8422985216381119</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>8167767101.3844922988942224</t>
-        </is>
+          <t>-3.2203503693808117</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>19.6268932847541679</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>shiba-inu</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Shiba Inu</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>589250824850659.8000000000000000</t>
+          <t>2.3605927823692116</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
+          <t>553534546.1655287625586681</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7487771074.9913127067659214</t>
-        </is>
+          <t>2.1734251276508148</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.3524045340857563</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>589552695333683.0000000000000000</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3169845047.4838877000000000</t>
+          <t>0.0000126026799554</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>76263835.4800202510386686</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7319371445.2538029592242559</t>
-        </is>
+          <t>-1.4675099067605612</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0000126341033021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="21">
@@ -1077,28 +1199,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hedera</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>50000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>42219399509.4028200000000000</t>
+          <t>0.1705221994890443</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://app.dragonglass.me/hedera/home</t>
+          <t>92383783.2716593654552800</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7291815763.0727263280639646</t>
-        </is>
+          <t>0.6388590766725307</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1711704604492137</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="22">
@@ -1109,28 +1239,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>84000000.0000000000000000</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>75558468.3040892000000000</t>
+          <t>86.3453584360287149</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://explorer.litecoin.net/chain/Litecoin</t>
+          <t>167438391.2111418247739044</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>6469254257.0149880701896458</t>
-        </is>
+          <t>-0.0174456870136912</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>85.7283558199608457</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="23">
@@ -1141,28 +1279,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Polkadot</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
+          <t>DOT</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1522267060.0000000000000000</t>
+          <t>4.0775325905588617</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://polkascan.io/polkadot</t>
+          <t>71649168.2635192180916581</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>6211954278.5391776717943300</t>
-        </is>
+          <t>-0.2311142956699293</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>4.0858309047599400</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="24">
@@ -1173,28 +1315,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Wrapped ETH</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
+          <t>WETH</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3375317.5926469000000000</t>
+          <t>1823.5622180151762763</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc02aaa39b223fe8d0a0e5c4f27ead9083c756cc2</t>
+          <t>460014715.1470925548562794</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>6144102402.9310631778808316</t>
-        </is>
+          <t>-0.9902239768077678</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="25">
@@ -1205,28 +1347,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>888888888.0000000000000000</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>974778351.8199997000000000</t>
+          <t>6.2332048972561419</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3593d125a4f7849a1b059e64f4517a86dd60c95d</t>
+          <t>33764378.2456257441561601</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>6104196066.7293727320696468</t>
-        </is>
+          <t>-0.1291820518119847</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>6.2202983241111179</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="26">
@@ -1237,28 +1387,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>21000000.0000000000000000</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>19848862.5000000000000000</t>
+          <t>305.1272476123007536</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://blockchair.com/bitcoin-cash/blocks</t>
+          <t>46157023.4297446612042914</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>6023188746.3479994497551575</t>
-        </is>
+          <t>-0.5820802661752306</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>304.8533220603252699</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="27">
@@ -1269,124 +1427,132 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bitget Token</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
+          <t>BGB</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1200000000.0000000000000000</t>
+          <t>4.5837432346179753</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x54D2252757e1672EEaD234D27B1270728fF90581</t>
+          <t>80862790.7038795745418300</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>5577893743.8175652400000000</t>
-        </is>
+          <t>-0.5105971018137577</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Pi</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
+          <t>DAI</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6773781074.8199860000000000</t>
+          <t>0.9993307059073696</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://blockexplorer.minepi.com/</t>
+          <t>63905023.0946243851125382</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>5406233793.7494721118674033</t>
-        </is>
+          <t>-0.0221042281542629</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9994919559425325</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Dai</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
+          <t>USDE</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5365382702.6648720000000000</t>
+          <t>0.9999326754034337</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x89d24a6b4ccb1b6faa2625fe562bdd9a23260359</t>
+          <t>35500615.2659193357231184</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>5364422326.3378411111389745</t>
-        </is>
+          <t>0.0317504921038749</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>PI</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>100000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>5247283786.4901540000000000</t>
+          <t>0.7628209445150806</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>etherscan.io</t>
+          <t>85907964.9047621484009899</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>5245728803.7280329393707867</t>
-        </is>
+          <t>-2.8679910503264232</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="31">
@@ -1397,28 +1563,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>HYPE</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>333928180.0000000000000000</t>
+          <t>12.5828525149608915</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://app.hyperliquid.xyz/explorer/token/0x0d01dc56dcaaca66ad901c959b4011ec</t>
+          <t>16980719.6435836138813222</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>4298824719.0012374183297740</t>
-        </is>
+          <t>-2.4782546046548454</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>12.7101163257018110</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="32">
@@ -1429,28 +1603,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Monero</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
+          <t>XMR</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>18446744.0737095500000000</t>
+          <t>217.2839528129797841</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>30438828.4203221909345126</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>3993800282.9340974800817414</t>
-        </is>
+          <t>0.4734842786752440</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>215.9741347888256585</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="33">
@@ -1461,28 +1639,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Uniswap</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
+          <t>UNI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>628494054.7100000000000000</t>
+          <t>5.9653064331233209</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>53749643.6972073128682960</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3769326792.3955632119224379</t>
-        </is>
+          <t>-0.7379963201913656</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>5.9756400520575151</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="34">
@@ -1493,28 +1675,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Aptos</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
+          <t>APT</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>603958016.4496461000000000</t>
+          <t>5.2896373271256143</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://explorer.aptoslabs.com/</t>
+          <t>42262851.0206306254879862</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3154710197.9810056551877096</t>
-        </is>
+          <t>-0.5549697913016573</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>5.2571858525231541</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="35">
@@ -1525,28 +1711,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Near Protocol</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
+          <t>NEAR</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1198166800.0000000000000000</t>
+          <t>2.6370229745284177</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://explorer.nearprotocol.com/</t>
+          <t>91849522.0372693899869315</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3097008436.6592812081353600</t>
-        </is>
+          <t>1.7930386790045982</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2.6389980224807920</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="36">
@@ -1557,28 +1747,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>420690000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>420689899653543.5600000000000000</t>
+          <t>0.0000070537455833</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>299995079.3028432586465927</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3029773532.5168219759114819</t>
-        </is>
+          <t>-3.8524858332079654</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0000071753556832</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="37">
@@ -1592,25 +1790,29 @@
           <t>OKB</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
+      <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>60000000.0000000000000000</t>
+          <t>48.5469842777667554</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>2096408.2641717460396120</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2891620175.4399099420000000</t>
-        </is>
+          <t>0.0806682787645802</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>48.4143920352894095</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="38">
@@ -1621,28 +1823,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>30263013692.0000000000000000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>26571560696.0000000000000000</t>
+          <t>0.1042218684660437</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xa0b73e1ff0b80914ab6fe0444e65848c4c34450b</t>
+          <t>42910391.4781205954730584</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2790157658.1501046850958512</t>
-        </is>
+          <t>3.4326572548626916</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1050045024148143</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="39">
@@ -1653,184 +1863,220 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Mantle</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>6219316795.0000000000000000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3364694382.8368406000000000</t>
+          <t>0.8023827261818461</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://mantlescan.xyz/</t>
+          <t>64145981.9112379831937131</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2699961505.2057555335563040</t>
-        </is>
+          <t>-0.4899709235006019</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8078779220109429</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>First Digital USD</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
+          <t>ICP</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2588088088.1839030000000000</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
+          <t>5.3763695773887212</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>30484427.3277550327387497</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2584061240.9943523653083949</t>
-        </is>
+          <t>-0.7841230571003332</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>5.3609082582608700</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
+          <t>FDUSD</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>482075205.8843776600000000</t>
+          <t>0.9984051942913332</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://www.dfinityexplorer.org/#/</t>
+          <t>1029775613.1339066283103287</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2581685391.1439520595162100</t>
-        </is>
+          <t>-0.0191701432646542</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.9986211944078144</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Aave</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
+          <t>ONDO</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>15093733.5954206200000000</t>
+          <t>0.8002040174336619</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
+          <t>80384786.5269370643010838</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2549908349.0321047639046086</t>
-        </is>
+          <t>0.7139311027876482</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7984788449640853</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>210700000.0000000000000000</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3159107529.0000000000000000</t>
+          <t>16.6436203753099326</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>22073494.2213449666324360</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2531820394.5145716138260667</t>
-        </is>
+          <t>-0.3173136843331806</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>16.6754770189594099</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
+          <t>AAVE</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>151314087.6834661400000000</t>
+          <t>164.3369654233845895</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>122123189.4238789141187412</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2516755433.8775290546824364</t>
-        </is>
+          <t>-4.9327191687546952</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>167.2506526747946012</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="45">
@@ -1841,28 +2087,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>POL (prev. MATIC)</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
+          <t>POL</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>10392099602.6534290000000000</t>
+          <t>0.2045474519240588</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>34975271.9187835691712683</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2109448878.9105546162727262</t>
-        </is>
+          <t>0.6511130688052530</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2027933698041628</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="46">
@@ -1873,28 +2123,36 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Trump Official</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>999999993.4500000000000000</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>199999429.3605040000000000</t>
+          <t>10.1776558524615507</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/6p6xgHyF7AeE6TZkSmFsko444wqoP15icUSqi2jfGiPN</t>
+          <t>67817765.5761678811151084</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2017932366.9006062675018450</t>
-        </is>
+          <t>1.3879574760923528</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>10.0967196223397926</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="47">
@@ -1905,28 +2163,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>86712634466.0000000000000000</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>85985041177.0000000000000000</t>
+          <t>0.0228433289459476</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://explore.veforge.com/</t>
+          <t>19322183.1930679260967015</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>1972372076.7056276660095994</t>
-        </is>
+          <t>-0.3931565804151255</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0229436351790824</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="48">
@@ -1937,28 +2203,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>21000000.0000000000000000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>8534124.0000000000000000</t>
+          <t>227.9086637098056868</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>51460517.5329617147339260</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1968864590.6431538780648340</t>
-        </is>
+          <t>1.1762684817015759</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>228.5842286857285730</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="49">
@@ -1969,84 +2243,104 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Ethena</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
+          <t>ENA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr">
         <is>
-          <t>5285937500.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
+          <t>0.3677972878576275</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>73281963.4625906797015883</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>1931516772.0549792309375000</t>
-        </is>
+          <t>-1.3720548504417159</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3672500959010286</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>GateToken</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
+          <t>TIA</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>85826625.2836886300000000</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
+          <t>3.3041332383642257</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>31978362.7783752390274434</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>1914050754.4524487211698307</t>
-        </is>
+          <t>2.2076198209492110</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>3.2433517837001646</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Celestia</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>579488884.7562950000000000</t>
+          <t>22.2861856730065422</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>6706613.9145861226422360</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>1861481627.6244087027573087</t>
-        </is>
+          <t>-0.1531652724035264</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>22.3755988290727650</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="52">
@@ -2057,24 +2351,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Render</t>
+          <t>RENDER</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>644168762.0000000000000000</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>517716590.0562826400000000</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
+          <t>3.5306269222896581</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>43162292.1663150888734513</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>1801854633.9552019550775493</t>
-        </is>
+          <t>-1.7941184139372928</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>3.5267289726832598</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="53">
@@ -2085,92 +2391,108 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Filecoin</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
+          <t>FIL</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>646042539.0000000000000000</t>
+          <t>2.7600545381269187</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>49786355.0285187274391112</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>1767555384.7792514227107219</t>
-        </is>
+          <t>-0.7617960895567618</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2.7500620240074429</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Kaspa</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
+          <t>ATOM</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>25938937607.7175750000000000</t>
+          <t>4.3070903238575502</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>49927884.3509615151012786</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>1667781804.2086878000182569</t>
-        </is>
+          <t>-1.5298393453193274</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>4.2962353386074610</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>28704026601.0000000000000000</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>390934204.0000000000000000</t>
+          <t>0.0645039936766491</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/</t>
+          <t>35402740.1732224496289226</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>1654706339.0678902770221032</t>
-        </is>
+          <t>-0.3671223566536879</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0646049766080422</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="56">
@@ -2181,28 +2503,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>8530665694.6491230000000000</t>
+          <t>0.1827495443363942</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://algoexplorer.io/</t>
+          <t>27980041.6214093816160169</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>1572698970.0981830710708801</t>
-        </is>
+          <t>-1.0203728446262883</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1836149137983526</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="57">
@@ -2213,28 +2543,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Arbitrum</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>4617913336.0000000000000000</t>
+          <t>0.3335672382662457</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+          <t>59515724.3116629749732891</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>1541312353.2150975275048328</t>
-        </is>
+          <t>-0.0389081905929188</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.3322395408090533</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="58">
@@ -2245,28 +2579,32 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DeXe</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
+          <t>DEXE</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>83733353.1605750500000000</t>
+          <t>17.6140929398562179</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>6225800.8013229874533078</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1467334025.4275592598641476</t>
-        </is>
+          <t>1.0213558646834610</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>17.5865542395612954</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="59">
@@ -2277,28 +2615,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Sonic (prev. FTM)</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>3175000000.0000000000000000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2880000000.0000000000000000</t>
+          <t>0.4894326881193458</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>sonicscan.org</t>
+          <t>77462959.7294485471590406</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1410827960.6605581120000000</t>
-        </is>
+          <t>-1.0935322904672742</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4903278303471255</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="60">
@@ -2309,28 +2655,32 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Story</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>258701717.0000000000000000</t>
+          <t>5.2839574766821289</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>www.storyscan.xyz</t>
+          <t>36619597.7304532896495680</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1369938502.8672657170340568</t>
-        </is>
+          <t>0.7542216654266165</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>5.3208366696182104</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="61">
@@ -2341,28 +2691,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KuCoin Token</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>200000000.0000000000000000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>122543917.8513356400000000</t>
+          <t>11.0870824179948276</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>494999.2220712987180253</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>1356745023.4707309026682201</t>
-        </is>
+          <t>0.3335320410502523</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>11.0659419516174151</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="62">
@@ -2373,28 +2731,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>3000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2690911111.1000000000000000</t>
+          <t>0.4832512135980812</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>29010225.6029017856891408</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>1283915640.4706094607607447</t>
-        </is>
+          <t>4.5601149346556208</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4759175240221405</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="63">
@@ -2405,28 +2771,32 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Optimism</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1620705846.0000000000000000</t>
+          <t>0.7530207746075470</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://optimistic.etherscan.io/token/0x4200000000000000000000000000000000000042</t>
+          <t>54594539.0719619644818378</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>1246676762.6033562908945136</t>
-        </is>
+          <t>-3.3070664844461663</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.7640222375971435</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="64">
@@ -2437,88 +2807,116 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Artificial Superintelligence Alliance</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>2630547141.0000000000000000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2520000000.0000000000000000</t>
+          <t>0.4736989436110970</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>54021847.3893154828041537</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>1191234770.1155109600000000</t>
-        </is>
+          <t>-0.6745263403410042</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4728618706686799</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Movement</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
+          <t>1000000.0000000000000000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2450000000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr"/>
+          <t>1277.9630269941052040</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>27725609.6423535942061477</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>1099987973.7117743500000000</t>
-        </is>
+          <t>-4.8141648310024183</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1305.9867566995401660</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>848074.4183746700000000</t>
+          <t>0.4364301170547399</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>43209029.2762086072382175</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>1097148630.1213933849797655</t>
-        </is>
+          <t>-3.8391408654979894</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4495629172750414</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="67">
@@ -2529,28 +2927,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>XDC Network</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
+          <t>XDC</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>15692654414.5500000000000000</t>
+          <t>0.0665151584181181</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
+          <t>7730999.0898683165671155</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>1070156987.8680359581709838</t>
-        </is>
+          <t>-3.4844309226849261</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0679297363148188</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="68">
@@ -2561,56 +2963,72 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Immutable X</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>2000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1768317543.3900000000000000</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr"/>
+          <t>0.5493715757267423</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>9721440.9856041665907245</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>976331197.3122773245312771</t>
-        </is>
+          <t>-1.9424160333784621</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.5506830042304253</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Wrapped BNB</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
+          <t>WLD</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>1582884.5398480400000000</t>
+          <t>0.7857760989309165</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0xbb4CdB9CBd36B01bD1cBaEBF2De08d9173bc095c</t>
+          <t>63445489.8588118133857743</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>961915715.5932057785932830</t>
-        </is>
+          <t>-0.0855752846678216</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.7847652286707520</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="70">
@@ -2621,144 +3039,176 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>1818000000.0000000000000000</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>1519143324.9652000000000000</t>
+          <t>0.6264866511363459</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://explorer.stacks.co/</t>
+          <t>14007124.9344268512894152</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>951874736.5640840923995073</t>
-        </is>
+          <t>-0.9162540514067228</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.6192038847170982</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Worldcoin</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
+          <t>WBNB</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1212147111.2468452000000000</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr"/>
+          <t>600.7341966414022050</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>11243355.0300678220063358</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>944028010.9010396970519914</t>
-        </is>
+          <t>-0.9314445701494050</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Usual USD</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>2100000000.0000000000000000</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>900657124.0838901000000000</t>
+          <t>0.6038286768427892</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/address/0x73A15FeD60Bf67631dC6cd7Bc5B6e8da8190aCF5</t>
+          <t>131003662.0506341024543419</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>898582459.0946837021955001</t>
-        </is>
+          <t>8.9905049361011250</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.5883888384081505</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Bonk</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
+          <t>USD0</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>77894175221082.5500000000000000</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr"/>
+          <t>0.9977407311008007</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>20088895.7235329895452453</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>885191982.2847630618795874</t>
-        </is>
+          <t>-0.0023119135026575</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Sei</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>73</t>
-        </is>
-      </c>
+          <t>BONK</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>4882361111.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr"/>
+          <t>0.0000113726704124</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>44949292.4845418969420259</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>882390168.3221567905715871</t>
-        </is>
+          <t>-0.0180219692934258</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0000113374521846</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="75">
@@ -2769,184 +3219,224 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>The Graph</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>74</t>
-        </is>
-      </c>
+          <t>GRT</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr">
         <is>
-          <t>9775189789.3182130000000000</t>
+          <t>0.0897093741246989</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>8041436.3793050719421586</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>873887205.0400928502751168</t>
-        </is>
+          <t>-0.4753013880346093</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0894557249361637</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Injective</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>75</t>
-        </is>
-      </c>
+          <t>SEI</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr">
         <is>
-          <t>98970935.4100000000000000</t>
+          <t>0.1786462271684566</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>33186784.3344792876540820</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>868354716.6944952243536303</t>
-        </is>
+          <t>-0.7946211490562297</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1793161245785532</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>100000000.0000000000000000</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>1555580489.8912000000000000</t>
+          <t>8.7958851480641705</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>45836680.4466174893752513</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>851562953.7912270973863332</t>
-        </is>
+          <t>-0.0935746096683801</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>8.7784719504925445</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>FORM</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>580000000.0000000000000000</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>12072738.0000000000000000</t>
+          <t>2.2630511816159190</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>3932386.2238494675215569</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>840759571.2912169595663004</t>
-        </is>
+          <t>1.0074385785197137</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Theta Network</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>14881364.0000000000000000</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>1000000000.0000000000000000</t>
+          <t>69.8623015941026254</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>9068450.5338910730989055</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>836039972.3196338000000000</t>
-        </is>
+          <t>0.6280314888356847</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>69.5468348416527607</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Four</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>1000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>381867255.1445740000000000</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr"/>
+          <t>0.8287081540332393</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>9744910.2870855192982737</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>830198277.1416908051489310</t>
-        </is>
+          <t>-2.8372982437670743</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.8331764878724043</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="81">
@@ -2957,28 +3447,32 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Flare</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
+          <t>FLR</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>60983663777.0100000000000000</t>
+          <t>0.0132991055181932</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://flare-explorer.flare.network/</t>
+          <t>7970869.9670327943081028</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>806973804.9338775850067293</t>
-        </is>
+          <t>-0.4677425020187143</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0134506247341788</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="82">
@@ -2989,28 +3483,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PayPal USD</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
+          <t>PYUSD</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr">
         <is>
-          <t>802871349.4263150000000000</t>
+          <t>0.9985022620558683</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
+          <t>7516012.0992107581547545</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>801516669.7799929918057961</t>
-        </is>
+          <t>0.0137574419923531</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.9984522729690971</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="83">
@@ -3021,24 +3519,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Berachain</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>82</t>
-        </is>
-      </c>
+          <t>BERA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>107480000.0000000000000000</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr"/>
+          <t>7.4090621791552874</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>89026323.6212763599313706</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>795127890.3225529802920000</t>
-        </is>
+          <t>-6.2214689875130021</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>7.5401675251296157</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="84">
@@ -3049,28 +3555,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>83</t>
-        </is>
-      </c>
+          <t>LDO</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>897877243.8587132000000000</t>
+          <t>0.8690687596002477</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>27353309.9746118470821043</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>788485386.8367231244493098</t>
-        </is>
+          <t>-1.9000742496713360</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.8710360125130018</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="85">
@@ -3081,28 +3591,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Tether Gold</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
+          <t>XAUT</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>246524.0000000000000000</t>
+          <t>3105.8217069894061610</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
+          <t>6025169.3466185929079873</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>767629346.5031013806052952</t>
-        </is>
+          <t>-0.3050607673322401</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>3103.7279418698772412</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="86">
@@ -3113,28 +3627,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Nexo</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
+          <t>NEXO</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>646145839.5746847000000000</t>
+          <t>1.0896601510737038</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>3188781.0245416753786795</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>696775670.0897274689012979</t>
-        </is>
+          <t>0.4984862122315703</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>1.0763968553549678</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="87">
@@ -3145,28 +3663,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Jito</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>86</t>
-        </is>
-      </c>
+          <t>JTO</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>310048982.3000000000000000</t>
+          <t>2.2081901719733103</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
+          <t>13202182.7411278524653010</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>684048671.4149622103839897</t>
-        </is>
+          <t>4.0431098061899553</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2.1777362786129459</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="88">
@@ -3177,28 +3699,36 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>50000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>43744189534.5928200000000000</t>
+          <t>0.0155477125333605</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>34356457.6636185121780994</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>675934600.2598317924475358</t>
-        </is>
+          <t>0.1932679511775867</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0153649025618433</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="89">
@@ -3209,28 +3739,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Tezos</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
+          <t>XTZ</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>1036827531.6780720000000000</t>
+          <t>0.6546770587575958</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>4993012.6869089878637055</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>673831428.5401824338962507</t>
-        </is>
+          <t>-0.5271791681415639</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.6547043856052576</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="90">
@@ -3241,28 +3775,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
+          <t>SAND</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2481357126.2233224000000000</t>
+          <t>0.2716212915879926</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>13243734.2601066921811856</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>670010329.3811026259130289</t>
-        </is>
+          <t>0.1578686978249370</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2707712609779487</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="91">
@@ -3273,28 +3811,32 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BitTorrent [New]</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
+          <t>BTTOLD</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>986061142857000.0000000000000000</t>
+          <t>0.0000006722668399</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token/1002000</t>
+          <t>964178.7937731921564321</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>663315970.4451091582092000</t>
-        </is>
+          <t>-0.3983042931841228</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0000006754789241</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="92">
@@ -3305,28 +3847,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PAX Gold</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
+          <t>PAXG</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>210371.2200000000000000</t>
+          <t>3132.4073641538494446</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
+          <t>43893164.4126756440356279</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>656440612.0699848713241346</t>
-        </is>
+          <t>0.7502458435500204</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>3120.1892375105473421</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="93">
@@ -3340,89 +3886,105 @@
           <t>IOTA</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>92</t>
-        </is>
-      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>3688810566.0000000000000000</t>
+          <t>0.1727886953268765</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>8655888.5717021311668541</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>643333898.4821957136702312</t>
-        </is>
+          <t>-0.5656167906202642</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1734645905410681</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>93</t>
-        </is>
-      </c>
+          <t>BSV</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1307447846.0000000000000000</t>
+          <t>31.9316079677854307</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>6808570.8239188279123292</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>642893675.9930117469782132</t>
-        </is>
+          <t>-0.3146607037735575</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>31.9246053866936951</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>3030303030.2990000000000000</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>19844465.6250000000000000</t>
+          <t>0.4797532931330171</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>37143185.2960708810971040</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>618550480.8274129470079088</t>
-        </is>
+          <t>-1.5518680076327210</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.4827899417720555</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="96">
@@ -3433,28 +3995,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Kaia</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>95</t>
-        </is>
-      </c>
+          <t>KAIA</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>5966455361.8200000000000000</t>
+          <t>0.1031787460292925</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://www.kaiascan.io/</t>
+          <t>4330615.3316225324456004</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>612140479.4307130801030151</t>
-        </is>
+          <t>0.0930973003800359</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1030482548852833</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="97">
@@ -3465,28 +4031,36 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>450000000.0000000000000000</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>301822670.3599872600000000</t>
+          <t>1.9976818849370269</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>41263298.8620870778775242</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>603786260.1301708746558791</t>
-        </is>
+          <t>-0.2616449056017938</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2.0071109066769971</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="98">
@@ -3497,92 +4071,112 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Flow</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>97</t>
-        </is>
-      </c>
+          <t>FLOW</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>1572540589.3190167000000000</t>
+          <t>0.3826285391508524</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>7453219.8795418599666173</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>594222462.9006889619505658</t>
-        </is>
+          <t>-0.0570429224120130</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.3822625240252177</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>223000000.0000000000000000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>15886821.0000000000000000</t>
+          <t>3.2111751153327410</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>4658879.2649954974917703</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>579262544.1824133479025006</t>
-        </is>
+          <t>3.5839280481133219</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>3.2038076719185671</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>21000000.0000000000000000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>179760925.5581076000000000</t>
+          <t>36.2424281043417757</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>7555036.1863348790657646</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>572038782.6309731994196095</t>
-        </is>
+          <t>0.6166750864665108</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>36.0653319432336121</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
     <row r="101">
@@ -3593,28 +4187,36 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ethereum Name Service</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>100000000.0000000000000000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>35599404.0400000000000000</t>
+          <t>16.0056862018917924</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
+          <t>23906502.0200030915198407</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>565351361.5889217448536238</t>
-        </is>
+          <t>-0.1551305279985365</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>15.9187589996166714</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1743348443776</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/df_api_symbol_xlsx.xlsx
+++ b/src/static/xlsx/df_api_symbol_xlsx.xlsx
@@ -493,26 +493,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82916.7884827325688591</t>
+          <t>82613.7461319178046912</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5718748127.1528516033442327</t>
+          <t>19458216229.5456414394492114</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.4401747280786942</t>
+          <t>-3.1628347666684062</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>82791.3842202897238302</t>
+          <t>85489.6147972477784752</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="3">
@@ -529,26 +529,26 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1818.8076237170217083</t>
+          <t>1798.6392026530222873</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4766428019.3459411165197428</t>
+          <t>11636134272.0186499412096684</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.3563933435731850</t>
+          <t>-5.8128233499921034</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1825.8535093424786455</t>
+          <t>1873.2456393693564074</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="4">
@@ -565,26 +565,26 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0020125849348224</t>
+          <t>0.9996501881879324</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>18307782667.4688571644720034</t>
+          <t>43598985117.6059918216113714</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.0086347766169269</t>
+          <t>-0.1791141347037187</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0002823425646397</t>
+          <t>1.0000019205852120</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="5">
@@ -605,26 +605,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.1497644567582078</t>
+          <t>2.0316470380518614</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1238750853.4358423662315195</t>
+          <t>2728488359.6339809127217026</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.5159096818527332</t>
+          <t>-5.0619477140029728</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1515863032611537</t>
+          <t>2.1152672622832497</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="6">
@@ -645,26 +645,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>604.6613195400000179</t>
+          <t>593.1023956954452053</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>255971674.4396049080707602</t>
+          <t>796407551.4510289898261441</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-0.2590069306687397</t>
+          <t>-3.0230767448718937</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>605.3547296331083335</t>
+          <t>602.8583017048006535</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="7">
@@ -681,26 +681,26 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>125.2672204508401971</t>
+          <t>119.0049620638101768</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1030343021.0930431740770552</t>
+          <t>3399476275.7070297759686405</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.7470015985162058</t>
+          <t>-6.1037229736098863</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>124.9818949943009180</t>
+          <t>127.4142239609940486</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="8">
@@ -717,26 +717,26 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.0003507029207151</t>
+          <t>1.0009998151429377</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3212131486.3803947144172163</t>
+          <t>9129723236.7032403484076338</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-0.0270781050692053</t>
+          <t>0.0486903374337158</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.0015822519802545</t>
+          <t>0.9998996377116921</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="9">
@@ -753,26 +753,26 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.1694808953819348</t>
+          <t>0.1646598204224643</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>441209058.9153757065191887</t>
+          <t>1210105392.5286672876453773</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.7349720309518281</t>
+          <t>-5.4882550554326527</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1695603448885122</t>
+          <t>0.1720568712245129</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="10">
@@ -793,26 +793,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6731510345988975</t>
+          <t>0.6427220348094062</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>229640964.0885899315699713</t>
+          <t>517803627.6003990983828801</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.0674625960801444</t>
+          <t>-5.2060276235180228</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6739562499198983</t>
+          <t>0.6759852171243840</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="11">
@@ -829,26 +829,26 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.2307035262481634</t>
+          <t>0.2334672675534081</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>237089279.7413524358328388</t>
+          <t>360646827.6859809727443618</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.6395153608264012</t>
+          <t>-1.8727489217053303</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2320953549970309</t>
+          <t>0.2377132718794603</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="12">
@@ -865,26 +865,26 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1816.2458483800763078</t>
+          <t>1799.9047812667959549</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>6260068.3419517004753704</t>
+          <t>8071686.4153063919370985</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-1.4069402425700687</t>
+          <t>-5.4622963409834103</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1832.9886302838556275</t>
+          <t>1844.0080514456342142</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="13">
@@ -901,26 +901,26 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82112.0183876590350267</t>
+          <t>82406.5339118704116958</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>107738586.7663614385666362</t>
+          <t>213724793.3121699395638608</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-0.3333061838342018</t>
+          <t>-3.0002000033702729</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>82981.7007507780351351</t>
+          <t>85698.1361722102547623</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="14">
@@ -937,98 +937,98 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.8127405714776245</t>
+          <t>3.8461061292632072</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>116254527.9634560824456334</t>
+          <t>140650888.8277464455053983</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.1863733089884897</t>
+          <t>-5.3580700174231220</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>3.7655672859094817</t>
+          <t>4.0123636773992744</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>13.6335376890376460</t>
+          <t>9.3316821573469161</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>135506293.4273732830841045</t>
+          <t>7357546.9469304407649398</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-0.4597095166511734</t>
+          <t>0.2364827018646868</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>13.6120301627217862</t>
+          <t>9.3964343831286980</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>9.6357253283080724</t>
+          <t>12.9325316690785536</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5023166.8719188923953401</t>
+          <t>396218714.0103962650431128</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0.1144331361562571</t>
+          <t>-7.8461798737260019</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>9.5406858729989225</t>
+          <t>13.7044583216541372</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="17">
@@ -1049,106 +1049,106 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.2684616527897720</t>
+          <t>0.2589060187385602</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>53000727.5913387874859268</t>
+          <t>130780348.6522674576119439</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.2747258630171079</t>
+          <t>-5.2678902333234423</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2676661239757318</t>
+          <t>0.2683813600779731</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>715748719.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>19.4087907780726472</t>
+          <t>2.3076304943409299</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>123599458.8422985216381119</t>
+          <t>950035602.4219981002297306</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-3.2203503693808117</t>
+          <t>-4.1171062432708843</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>19.6268932847541679</t>
+          <t>2.4224505829713471</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>715748719.0000000000000000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.3605927823692116</t>
+          <t>18.0563866142949994</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>553534546.1655287625586681</t>
+          <t>277512231.3143471307445411</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.1734251276508148</t>
+          <t>-8.7534014630204907</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.3524045340857563</t>
+          <t>19.2499854787668663</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="20">
@@ -1169,26 +1169,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0000126026799554</t>
+          <t>0.0000121011012609</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>76263835.4800202510386686</t>
+          <t>179160700.8397060222354770</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-1.4675099067605612</t>
+          <t>-4.6446322852393388</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0000126341033021</t>
+          <t>0.0000124948779869</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="21">
@@ -1209,26 +1209,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.1705221994890443</t>
+          <t>0.1612641871230726</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>92383783.2716593654552800</t>
+          <t>209158732.5758688610324274</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.6388590766725307</t>
+          <t>-5.4250989677994772</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1711704604492137</t>
+          <t>0.1681223451443682</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="22">
@@ -1249,62 +1249,66 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>86.3453584360287149</t>
+          <t>82.0392540018344358</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>167438391.2111418247739044</t>
+          <t>380928653.6802415128300928</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-0.0174456870136912</t>
+          <t>-3.1120106443969554</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>85.7283558199608457</t>
+          <t>84.1515138951764924</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>mantra-dao</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DOT</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>OM</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>888888888.0000000000000000</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.0775325905588617</t>
+          <t>6.2734032812218788</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>71649168.2635192180916581</t>
+          <t>66493161.4444789245971631</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.2311142956699293</t>
+          <t>0.0254139703045069</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>4.0858309047599400</t>
+          <t>6.2704437178114203</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="24">
@@ -1321,62 +1325,58 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1823.5622180151762763</t>
+          <t>1799.5273398825053161</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>460014715.1470925548562794</t>
+          <t>762771151.4494678994956100</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-0.9902239768077678</t>
+          <t>-5.6317579925124591</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>mantra-dao</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>OM</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>888888888.0000000000000000</t>
-        </is>
-      </c>
+          <t>DOT</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>6.2332048972561419</t>
+          <t>3.9693675163159851</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>33764378.2456257441561601</t>
+          <t>166647428.8715563193443385</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-0.1291820518119847</t>
+          <t>-5.0415919660323063</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>6.2202983241111179</t>
+          <t>4.1158577979662966</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="26">
@@ -1397,26 +1397,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>305.1272476123007536</t>
+          <t>295.1278186064349449</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>46157023.4297446612042914</t>
+          <t>130848701.8898557187146055</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-0.5820802661752306</t>
+          <t>-4.5078665697049352</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>304.8533220603252699</t>
+          <t>306.7222238186456356</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="27">
@@ -1433,22 +1433,22 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.5837432346179753</t>
+          <t>4.4953743867776415</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80862790.7038795745418300</t>
+          <t>102975348.7022755820955434</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-0.5105971018137577</t>
+          <t>-3.4101445289085451</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="28">
@@ -1465,26 +1465,26 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.9993307059073696</t>
+          <t>0.9994416371576748</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>63905023.0946243851125382</t>
+          <t>133002634.1544961595481004</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-0.0221042281542629</t>
+          <t>0.0095395436657100</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.9994919559425325</t>
+          <t>0.9997016026331541</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="29">
@@ -1501,22 +1501,22 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.9999326754034337</t>
+          <t>0.9995638967534108</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>35500615.2659193357231184</t>
+          <t>60069868.1299716304320200</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.0317504921038749</t>
+          <t>-0.0444959274790329</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="30">
@@ -1537,22 +1537,26 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.7628209445150806</t>
+          <t>0.6557676791772667</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>85907964.9047621484009899</t>
+          <t>102747781.7607115563507776</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-2.8679910503264232</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>-7.5039702654128606</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9351907533812549</t>
+        </is>
+      </c>
       <c r="H30" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="31">
@@ -1573,26 +1577,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12.5828525149608915</t>
+          <t>11.8710256541012013</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>16980719.6435836138813222</t>
+          <t>37118853.2559679305528862</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-2.4782546046548454</t>
+          <t>-10.7806163563423888</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>12.7101163257018110</t>
+          <t>13.4484816344568361</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="32">
@@ -1609,26 +1613,26 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>217.2839528129797841</t>
+          <t>213.6251558370328950</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>30438828.4203221909345126</t>
+          <t>57335102.3512962392179541</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>0.4734842786752440</t>
+          <t>-1.5889283298217285</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>215.9741347888256585</t>
+          <t>217.6563196354219532</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="33">
@@ -1645,26 +1649,26 @@
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5.9653064331233209</t>
+          <t>5.8657319459074063</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>53749643.6972073128682960</t>
+          <t>105605019.3122833394463062</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-0.7379963201913656</t>
+          <t>-6.6959358538966475</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>5.9756400520575151</t>
+          <t>6.1462011634614081</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="34">
@@ -1681,102 +1685,102 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.2896373271256143</t>
+          <t>5.1008624128427572</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>42262851.0206306254879862</t>
+          <t>90399090.1278228038966968</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-0.5549697913016573</t>
+          <t>-5.6826857093927840</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5.2571858525231541</t>
+          <t>5.3176288143448584</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>near-protocol</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>NEAR</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>420690000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2.6370229745284177</t>
+          <t>0.0000070768532403</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>91849522.0372693899869315</t>
+          <t>857327383.0086401416757517</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>1.7930386790045982</t>
+          <t>-8.5660771845192507</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>2.6389980224807920</t>
+          <t>0.0000075063694375</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>near-protocol</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>420690000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>NEAR</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.0000070537455833</t>
+          <t>2.4449698324905970</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>299995079.3028432586465927</t>
+          <t>139662458.0853478439029399</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-3.8524858332079654</t>
+          <t>-7.7882160390105607</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0000071753556832</t>
+          <t>2.6074781249355288</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="37">
@@ -1793,214 +1797,214 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>48.5469842777667554</t>
+          <t>47.1813584512848093</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2096408.2641717460396120</t>
+          <t>3206733.7162890332652155</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.0806682787645802</t>
+          <t>-2.2987073394795198</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>48.4143920352894095</t>
+          <t>47.4443804865248700</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>30263013692.0000000000000000</t>
+          <t>6219316795.0000000000000000</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.1042218684660437</t>
+          <t>0.7764735629821558</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>42910391.4781205954730584</t>
+          <t>163771963.7224363736647524</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>3.4326572548626916</t>
+          <t>-3.1730253716360998</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.1050045024148143</t>
+          <t>0.7933856661937006</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>6219316795.0000000000000000</t>
+          <t>30263013692.0000000000000000</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.8023827261818461</t>
+          <t>0.0959991228209915</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>64145981.9112379831937131</t>
+          <t>55193668.3841560111077771</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-0.4899709235006019</t>
+          <t>-7.4693275075352338</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.8078779220109429</t>
+          <t>0.1040418566991901</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>internet-computer</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ICP</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5.3763695773887212</t>
+          <t>0.9803405134599789</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>30484427.3277550327387497</t>
+          <t>4154241194.4448362813623991</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-0.7841230571003332</t>
+          <t>-1.6489834919923842</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>5.3609082582608700</t>
+          <t>0.9719757358097704</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FDUSD</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.9984051942913332</t>
+          <t>0.7913688194386373</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>1029775613.1339066283103287</t>
+          <t>263172550.7415073121089838</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-0.0191701432646542</t>
+          <t>-3.7995093954652752</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.9986211944078144</t>
+          <t>0.8327282311500948</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>internet-computer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>ICP</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.8002040174336619</t>
+          <t>5.0766400996129673</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>80384786.5269370643010838</t>
+          <t>43870906.8417242857482617</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.7139311027876482</t>
+          <t>-6.7178131807568690</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>0.7984788449640853</t>
+          <t>5.2690743408126849</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="43">
@@ -2021,26 +2025,26 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16.6436203753099326</t>
+          <t>16.0652184627791784</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>22073494.2213449666324360</t>
+          <t>65186288.1192406088512800</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-0.3173136843331806</t>
+          <t>-4.8755047414270330</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16.6754770189594099</t>
+          <t>16.6257494928156630</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="44">
@@ -2057,26 +2061,26 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>164.3369654233845895</t>
+          <t>151.3763387845022953</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>122123189.4238789141187412</t>
+          <t>206391229.1568676625257128</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-4.9327191687546952</t>
+          <t>-9.0352510515365737</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>167.2506526747946012</t>
+          <t>160.3489168614322072</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="45">
@@ -2093,66 +2097,62 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.2045474519240588</t>
+          <t>0.1862187074564521</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>34975271.9187835691712683</t>
+          <t>77650619.5158777693562095</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>0.6511130688052530</t>
+          <t>-7.8997778522315448</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.2027933698041628</t>
+          <t>0.1951577902823479</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>official-trump</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>TRUMP</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>999999993.4500000000000000</t>
-        </is>
-      </c>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10.1776558524615507</t>
+          <t>22.2541787738149842</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>67817765.5761678811151084</t>
+          <t>13883428.0420554409853859</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>1.3879574760923528</t>
+          <t>-2.8458740608634457</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>10.0967196223397926</t>
+          <t>22.6910890554908084</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="47">
@@ -2173,174 +2173,178 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.0228433289459476</t>
+          <t>0.0215658824539180</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>19322183.1930679260967015</t>
+          <t>33884662.2773940979962017</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-0.3931565804151255</t>
+          <t>-8.0999492923305970</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0229436351790824</t>
+          <t>0.0228479790826884</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>official-trump</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>TRUMP</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>999999993.4500000000000000</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>227.9086637098056868</t>
+          <t>9.2324173922226601</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>51460517.5329617147339260</t>
+          <t>207761439.6382333439878011</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.1762684817015759</t>
+          <t>-11.3681183178219074</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>228.5842286857285730</t>
+          <t>10.0932972430703360</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ENA</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.3677972878576275</t>
+          <t>213.0537947234934181</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>73281963.4625906797015883</t>
+          <t>99570571.7360041446653135</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-1.3720548504417159</t>
+          <t>-7.8414740427921809</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>0.3672500959010286</t>
+          <t>225.0489583384513708</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3.3041332383642257</t>
+          <t>0.3361112231248893</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>31978362.7783752390274434</t>
+          <t>184509737.1108449178466866</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2.2076198209492110</t>
+          <t>-9.3467411087448984</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>3.2433517837001646</t>
+          <t>0.3624869361772366</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>22.2861856730065422</t>
+          <t>2.7011773562676319</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>6706613.9145861226422360</t>
+          <t>123753603.4866047602595904</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-0.1531652724035264</t>
+          <t>-4.9468487430302695</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>22.3755988290727650</t>
+          <t>2.7798948251427674</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="52">
@@ -2361,62 +2365,62 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.5306269222896581</t>
+          <t>3.3174063765861566</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>43162292.1663150888734513</t>
+          <t>108154873.7611594389851843</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-1.7941184139372928</t>
+          <t>-10.2381629158107651</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3.5267289726832598</t>
+          <t>3.6053468367994682</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.7600545381269187</t>
+          <t>2.9189701338259759</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>49786355.0285187274391112</t>
+          <t>60623724.6674142093011038</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-0.7617960895567618</t>
+          <t>-7.3445814527942792</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>2.7500620240074429</t>
+          <t>3.0898473649933640</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="54">
@@ -2433,26 +2437,26 @@
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.3070903238575502</t>
+          <t>4.1926663553059648</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>49927884.3509615151012786</t>
+          <t>72092326.3966271802284503</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-1.5298393453193274</t>
+          <t>-4.3180250220139154</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4.2962353386074610</t>
+          <t>4.3829559389031905</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="55">
@@ -2473,26 +2477,26 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.0645039936766491</t>
+          <t>0.0629529511495507</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>35402740.1732224496289226</t>
+          <t>77007554.6986966632875837</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-0.3671223566536879</t>
+          <t>-8.4592922362994137</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0646049766080422</t>
+          <t>0.0662283556835476</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="56">
@@ -2513,26 +2517,26 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.1827495443363942</t>
+          <t>0.1768010587554547</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>27980041.6214093816160169</t>
+          <t>80245498.9281074805544185</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-1.0203728446262883</t>
+          <t>-6.4953478540050034</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.1836149137983526</t>
+          <t>0.1874739495398206</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="57">
@@ -2549,374 +2553,374 @@
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.3335672382662457</t>
+          <t>0.3074917326911489</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>59515724.3116629749732891</t>
+          <t>126219617.4180657172976422</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-0.0389081905929188</t>
+          <t>-7.9595727501672659</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.3322395408090533</t>
+          <t>0.3241460492829289</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DEXE</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>3175000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>17.6140929398562179</t>
+          <t>0.4704835493360852</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>6225800.8013229874533078</t>
+          <t>156344674.3284973092926316</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>1.0213558646834610</t>
+          <t>-7.1762786400131172</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>17.5865542395612954</t>
+          <t>0.4920631421067934</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>3175000000.0000000000000000</t>
+          <t>200000000.0000000000000000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.4894326881193458</t>
+          <t>10.6579122592196186</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>77462959.7294485471590406</t>
+          <t>1441370.8174864626168103</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-1.0935322904672742</t>
+          <t>-2.2828393116175665</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0.4903278303471255</t>
+          <t>10.8387379787541175</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>IP</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>EOS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>5.2839574766821289</t>
+          <t>0.7989342972663305</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>36619597.7304532896495680</t>
+          <t>618718409.6060721840420099</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0.7542216654266165</t>
+          <t>16.0624682909018043</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>5.3208366696182104</t>
+          <t>0.7970777844200969</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>KCS</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>200000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>DEXE</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>11.0870824179948276</t>
+          <t>14.5331224517568173</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>494999.2220712987180253</t>
+          <t>36808371.9064981839231130</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>0.3335320410502523</t>
+          <t>5.9017033886042926</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>11.0659419516174151</t>
+          <t>14.4202611910292096</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>JUP</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>3000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>OP</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.4832512135980812</t>
+          <t>0.7051860029526941</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>29010225.6029017856891408</t>
+          <t>103082744.9633326257767066</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>4.5601149346556208</t>
+          <t>-6.9114623991494667</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.4759175240221405</t>
+          <t>0.7286243291874472</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>optimism-ethereum</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.7530207746075470</t>
+          <t>4.3397489477601089</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>54594539.0719619644818378</t>
+          <t>130031223.4069393101389382</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-3.3070664844461663</t>
+          <t>-5.4763290187399412</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>0.7640222375971435</t>
+          <t>4.3462690165955788</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2630547141.0000000000000000</t>
+          <t>1000000.0000000000000000</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>0.4736989436110970</t>
+          <t>1282.7246926264043497</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>54021847.3893154828041537</t>
+          <t>43115763.7509896925444992</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-0.6745263403410042</t>
+          <t>-7.3986419941740069</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>0.4728618706686799</t>
+          <t>1365.3799953183783240</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1000000.0000000000000000</t>
+          <t>2630547141.0000000000000000</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>1277.9630269941052040</t>
+          <t>0.4314311030418484</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>27725609.6423535942061477</t>
+          <t>83558730.9392813577121923</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-4.8141648310024183</t>
+          <t>-7.9187968116349472</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>1305.9867566995401660</t>
+          <t>0.4564764069373379</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MOVE</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>3000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.4364301170547399</t>
+          <t>0.3809972807813897</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>43209029.2762086072382175</t>
+          <t>83981899.1227985655499860</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-3.8391408654979894</t>
+          <t>-10.5641287729592898</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.4495629172750414</t>
+          <t>0.4053061703516297</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="67">
@@ -2933,430 +2937,430 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.0665151584181181</t>
+          <t>0.0649588373447940</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>7730999.0898683165671155</t>
+          <t>25689817.8851877974107425</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-3.4844309226849261</t>
+          <t>-5.9025355115616639</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0679297363148188</t>
+          <t>0.0674141123623088</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>IMX</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>2000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>WBNB</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.5493715757267423</t>
+          <t>591.8167339160372281</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>9721440.9856041665907245</t>
+          <t>9414724.4848437618451299</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-1.9424160333784621</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>0.5506830042304253</t>
-        </is>
-      </c>
+          <t>-4.0818789090862495</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>WLD</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>MOVE</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>10000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.7857760989309165</t>
+          <t>0.3802503973281985</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>63445489.8588118133857743</t>
+          <t>87621597.7575643036404251</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-0.0855752846678216</t>
+          <t>-8.2466937147805865</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>0.7847652286707520</t>
+          <t>0.4028765948446518</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>STX</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>1818000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>WLD</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.6264866511363459</t>
+          <t>0.7235265511883205</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>14007124.9344268512894152</t>
+          <t>124472712.5707123873700160</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-0.9162540514067228</t>
+          <t>-10.1422839818522630</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.6192038847170982</t>
+          <t>0.7755519829311916</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>WBNB</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1818000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>600.7341966414022050</t>
+          <t>0.5772256286112338</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11243355.0300678220063358</t>
+          <t>29027972.6136404733712690</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-0.9314445701494050</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr"/>
+          <t>-6.5859868875346503</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.6097112379450383</t>
+        </is>
+      </c>
       <c r="H71" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EOS</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>2100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>USD0</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.6038286768427892</t>
+          <t>0.9977611865631149</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>131003662.0506341024543419</t>
+          <t>10624202.7569959444520966</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>8.9905049361011250</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>0.5883888384081505</t>
-        </is>
-      </c>
+          <t>-0.0108396743382976</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>USD0</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.9977407311008007</t>
+          <t>0.0000111191790529</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>20088895.7235329895452453</t>
+          <t>169405501.2888672741883050</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-0.0023119135026575</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr"/>
+          <t>-11.4749154618247779</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0000121616345354</t>
+        </is>
+      </c>
       <c r="H73" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>bonk1</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BONK</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr"/>
+          <t>IMX</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.0000113726704124</t>
+          <t>0.4803172309654802</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>44949292.4845418969420259</t>
+          <t>20185722.7658891000569318</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-0.0180219692934258</t>
+          <t>-9.1954707409468489</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>0.0000113374521846</t>
+          <t>0.5115406053816249</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>GRT</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>FORM</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>580000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0.0897093741246989</t>
+          <t>2.1829477400588575</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>8041436.3793050719421586</t>
+          <t>24615531.4703343116913003</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-0.4753013880346093</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>0.0894557249361637</t>
-        </is>
-      </c>
+          <t>-2.2479168644182340</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>SEI</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr"/>
+          <t>INJ</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>100000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>0.1786462271684566</t>
+          <t>8.3600528277244780</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>33186784.3344792876540820</t>
+          <t>57879859.3146569757984006</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-0.7946211490562297</t>
+          <t>-6.8152605416300164</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0.1793161245785532</t>
+          <t>8.7692319180133027</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>INJ</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>100000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>GRT</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr">
         <is>
-          <t>8.7958851480641705</t>
+          <t>0.0829952825141067</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>45836680.4466174893752513</t>
+          <t>17460462.0733826995460028</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-0.0935746096683801</t>
+          <t>-8.0821536033222311</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>8.7784719504925445</t>
+          <t>0.0871543507481238</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>FORM</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>580000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>SEI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2.2630511816159190</t>
+          <t>0.1651720644897385</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>3932386.2238494675215569</t>
+          <t>86287909.4374265123692679</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1.0074385785197137</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr"/>
+          <t>-6.5828626829290493</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1703634202729550</t>
+        </is>
+      </c>
       <c r="H78" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="79">
@@ -3377,174 +3381,174 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>69.8623015941026254</t>
+          <t>66.3309399341314000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>9068450.5338910730989055</t>
+          <t>20273237.4194841482056515</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>0.6280314888356847</t>
+          <t>-5.9802822581433515</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>69.5468348416527607</t>
+          <t>68.9443660004974792</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>THETA</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>FLR</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.8287081540332393</t>
+          <t>0.0129638754438637</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>9744910.2870855192982737</t>
+          <t>9619412.2731852816857456</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-2.8372982437670743</t>
+          <t>-4.9341465224229093</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.8331764878724043</t>
+          <t>0.0132479430176268</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.0132991055181932</t>
+          <t>3172.0955772045413589</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>7970869.9670327943081028</t>
+          <t>18621606.6065739577873459</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-0.4677425020187143</t>
+          <t>1.1437602519634530</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>0.0134506247341788</t>
+          <t>3141.4673740374267675</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>PYUSD</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>THETA</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.9985022620558683</t>
+          <t>0.7742628141280753</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>7516012.0992107581547545</t>
+          <t>19909220.0106427608639568</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>0.0137574419923531</t>
+          <t>-7.3938295331720834</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.9984522729690971</t>
+          <t>0.8156109411025807</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BERA</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>7.4090621791552874</t>
+          <t>0.9979013589987540</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>89026323.6212763599313706</t>
+          <t>10969382.0682096050446169</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-6.2214689875130021</t>
+          <t>-0.0982497072724397</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>7.5401675251296157</t>
+          <t>0.9984498018536391</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="84">
@@ -3561,506 +3565,506 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.8690687596002477</t>
+          <t>0.8198635814877261</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>27353309.9746118470821043</t>
+          <t>48053255.8477282294296853</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-1.9000742496713360</t>
+          <t>-9.0610562952471996</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.8710360125130018</t>
+          <t>0.8705865640083251</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>3105.8217069894061610</t>
+          <t>6.5779368193435431</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>6025169.3466185929079873</t>
+          <t>141240952.2475507283641030</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-0.3050607673322401</t>
+          <t>-8.3849481472067474</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>3103.7279418698772412</t>
+          <t>7.0510273432518136</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.0896601510737038</t>
+          <t>0.6472246192043548</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>3188781.0245416753786795</t>
+          <t>12713086.5731050814114186</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>0.4984862122315703</t>
+          <t>-2.5139151873065757</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>1.0763968553549678</t>
+          <t>0.6575912659797805</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2.2081901719733103</t>
+          <t>1.0375865418022930</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>13202182.7411278524653010</t>
+          <t>5769068.5985052661045676</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>4.0431098061899553</t>
+          <t>-4.6042503838213610</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>2.1777362786129459</t>
+          <t>1.0619929025767455</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>GALA</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>PAXG</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.0155477125333605</t>
+          <t>3174.2879011608858444</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>34356457.6636185121780994</t>
+          <t>46514267.2703735747854131</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>0.1932679511775867</t>
+          <t>1.2723864042311192</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>0.0153649025618433</t>
+          <t>3139.8683777354961234</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>0.6546770587575958</t>
+          <t>2.0998598230719209</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>4993012.6869089878637055</t>
+          <t>31753863.8763193247194051</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>-0.5271791681415639</t>
+          <t>-8.6572526742083192</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>0.6547043856052576</t>
+          <t>2.2484393911852824</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SAND</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>CRV</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>3030303030.2990000000000000</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.2716212915879926</t>
+          <t>0.4939594593648572</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>13243734.2601066921811856</t>
+          <t>113413935.9443063035529039</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>0.1578686978249370</t>
+          <t>-8.7797686202355787</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.2707712609779487</t>
+          <t>0.5232457457379790</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.0000006722668399</t>
+          <t>0.2580747073404595</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>964178.7937731921564321</t>
+          <t>30344471.8133608117336663</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-0.3983042931841228</t>
+          <t>-6.6672235511530756</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.0000006754789241</t>
+          <t>0.2698282551248925</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>PAXG</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>GALA</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3132.4073641538494446</t>
+          <t>0.0144855651831446</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>43893164.4126756440356279</t>
+          <t>50670420.2457224819013234</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>0.7502458435500204</t>
+          <t>-8.9431272680423651</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>3120.1892375105473421</t>
+          <t>0.0154744640979484</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.1727886953268765</t>
+          <t>0.0000006321804346</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>8655888.5717021311668541</t>
+          <t>3084385.4201997190508947</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-0.5656167906202642</t>
+          <t>-4.6883713407360239</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.1734645905410681</t>
+          <t>0.0000006598273811</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>BSV</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>ZEC</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>31.9316079677854307</t>
+          <t>39.0301363422141680</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>6808570.8239188279123292</t>
+          <t>16863800.7017040504103890</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-0.3146607037735575</t>
+          <t>-4.5464870864694444</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>31.9246053866936951</t>
+          <t>40.3079752594235728</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>CRV</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>3030303030.2990000000000000</t>
-        </is>
-      </c>
+          <t>KAIA</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.4797532931330171</t>
+          <t>0.1029233410260170</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>37143185.2960708810971040</t>
+          <t>13233301.6841600413415433</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>-1.5518680076327210</t>
+          <t>-1.8573669227130817</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.4827899417720555</t>
+          <t>0.1058577877482666</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
-          <t>0.1031787460292925</t>
+          <t>30.6198317427042535</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>4330615.3316225324456004</t>
+          <t>21336112.5626587131841748</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>0.0930973003800359</t>
+          <t>-5.4555709152411104</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>0.1030482548852833</t>
+          <t>31.7530084077214476</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>CAKE</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>450000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>IOTA</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>1.9976818849370269</t>
+          <t>0.1622933860259692</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>41263298.8620870778775242</t>
+          <t>24872663.8319693326911068</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>-0.2616449056017938</t>
+          <t>-7.1585723747440809</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>2.0071109066769971</t>
+          <t>0.1719086823078441</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="98">
@@ -4077,146 +4081,146 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.3826285391508524</t>
+          <t>0.3687013922389114</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>7453219.8795418599666173</t>
+          <t>14874825.8639792560475810</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-0.0570429224120130</t>
+          <t>-5.8234384992185777</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.3822625240252177</t>
+          <t>0.3842730029677338</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>raydium</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>RAY</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>223000000.0000000000000000</t>
+          <t>555000000.0000000000000000</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>3.2111751153327410</t>
+          <t>1.8958909667422309</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>4658879.2649954974917703</t>
+          <t>120346457.7353365418867770</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>3.5839280481133219</t>
+          <t>5.0350585373941399</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>3.2038076719185671</t>
+          <t>1.8977556250994675</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>100000000.0000000000000000</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>36.2424281043417757</t>
+          <t>15.1051282612126291</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>7555036.1863348790657646</t>
+          <t>54278468.8067641983260407</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>0.6166750864665108</t>
+          <t>-7.7821197490110293</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>36.0653319432336121</t>
+          <t>16.0574548650094182</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ethereum-name-service</t>
+          <t>pancakeswap</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ENS</t>
+          <t>CAKE</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100000000.0000000000000000</t>
+          <t>450000000.0000000000000000</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>16.0056862018917924</t>
+          <t>1.8083624636453129</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>23906502.0200030915198407</t>
+          <t>51409028.9650064445307765</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>-0.1551305279985365</t>
+          <t>-5.2921268982566718</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>15.9187589996166714</t>
+          <t>1.8795228995008039</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1743348443776</v>
+        <v>1743637667552</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/df_api_symbol_xlsx.xlsx
+++ b/src/static/xlsx/df_api_symbol_xlsx.xlsx
@@ -493,26 +493,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82613.7461319178046912</t>
+          <t>82910.2043773248061854</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>19458216229.5456414394492114</t>
+          <t>14252713672.2124541925028697</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-3.1628347666684062</t>
+          <t>-0.9832242352240397</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>85489.6147972477784752</t>
+          <t>82471.9205073768376651</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="3">
@@ -529,26 +529,26 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1798.6392026530222873</t>
+          <t>1801.2157457279158390</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11636134272.0186499412096684</t>
+          <t>8379047521.1587873299235214</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-5.8128233499921034</t>
+          <t>-1.4300611569390545</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1873.2456393693564074</t>
+          <t>1795.7617376157696000</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="4">
@@ -565,26 +565,26 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.9996501881879324</t>
+          <t>1.0010097880462923</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>43598985117.6059918216113714</t>
+          <t>33326605272.6960059283315126</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>-0.1791141347037187</t>
+          <t>0.1253355354126054</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.0000019205852120</t>
+          <t>1.0001868471948924</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="5">
@@ -605,26 +605,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.0316470380518614</t>
+          <t>2.0554547759802728</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2728488359.6339809127217026</t>
+          <t>2176951429.4426916881320363</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-5.0619477140029728</t>
+          <t>-0.0556294469190710</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2.1152672622832497</t>
+          <t>2.0309811165343918</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="6">
@@ -645,98 +645,98 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>593.1023956954452053</t>
+          <t>591.9560271876263756</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>796407551.4510289898261441</t>
+          <t>657429420.0399308376276231</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-3.0230767448718937</t>
+          <t>-1.9265868886641345</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>602.8583017048006535</t>
+          <t>595.3109061114759520</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>solana</t>
+          <t>usd-coin</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>SOL</t>
+          <t>USDC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>119.0049620638101768</t>
+          <t>0.9986370857550242</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3399476275.7070297759686405</t>
+          <t>7313590304.8258103819825408</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-6.1037229736098863</t>
+          <t>-0.1630551898069191</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>127.4142239609940486</t>
+          <t>1.0002670739122327</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>usd-coin</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>SOL</t>
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.0009998151429377</t>
+          <t>115.5226092185693154</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>9129723236.7032403484076338</t>
+          <t>2525427124.3548797980585805</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.0486903374337158</t>
+          <t>-3.5943849126880925</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.9998996377116921</t>
+          <t>116.3585335323666143</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="9">
@@ -753,26 +753,26 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.1646598204224643</t>
+          <t>0.1615422713868557</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1210105392.5286672876453773</t>
+          <t>777704463.3575495629039487</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-5.4882550554326527</t>
+          <t>-2.8513004288431612</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1720568712245129</t>
+          <t>0.1604062953038440</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="10">
@@ -793,26 +793,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6427220348094062</t>
+          <t>0.6474338634205431</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>517803627.6003990983828801</t>
+          <t>386661232.3456318468502065</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-5.2060276235180228</t>
+          <t>-0.9594468516662389</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.6759852171243840</t>
+          <t>0.6375039400318576</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="11">
@@ -829,26 +829,26 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.2334672675534081</t>
+          <t>0.2387796045245121</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>360646827.6859809727443618</t>
+          <t>265942595.2094364353669026</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-1.8727489217053303</t>
+          <t>1.1641083435300922</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2377132718794603</t>
+          <t>0.2355714971535056</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="12">
@@ -865,26 +865,26 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1799.9047812667959549</t>
+          <t>1797.8556438498190561</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8071686.4153063919370985</t>
+          <t>8591236.6291930149298285</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-5.4622963409834103</t>
+          <t>-1.7737999948330256</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1844.0080514456342142</t>
+          <t>1791.5633657393500718</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="13">
@@ -901,98 +901,98 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82406.5339118704116958</t>
+          <t>82580.5833333020327761</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>213724793.3121699395638608</t>
+          <t>171204770.0022461998485067</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-3.0002000033702729</t>
+          <t>-1.1179921874324288</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>85698.1361722102547623</t>
+          <t>81707.8264179078211265</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>toncoin</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3.8461061292632072</t>
+          <t>9.5271584907186672</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>140650888.8277464455053983</t>
+          <t>4465538.0329942770265210</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>-5.3580700174231220</t>
+          <t>1.7788413091981314</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>4.0123636773992744</t>
+          <t>9.1889617386864285</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>9.3316821573469161</t>
+          <t>3.5159452082307932</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7357546.9469304407649398</t>
+          <t>127467371.1532184587890645</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.2364827018646868</t>
+          <t>-8.1337986575944765</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>9.3964343831286980</t>
+          <t>3.6351280362429740</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="16">
@@ -1009,26 +1009,26 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.9325316690785536</t>
+          <t>12.7663913765258147</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>396218714.0103962650431128</t>
+          <t>301182209.8381416242378517</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-7.8461798737260019</t>
+          <t>-3.2780481309741452</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>13.7044583216541372</t>
+          <t>12.7491556932505381</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="17">
@@ -1049,106 +1049,106 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.2589060187385602</t>
+          <t>0.2593519731708447</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>130780348.6522674576119439</t>
+          <t>79689196.5923534822481579</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-5.2678902333234423</t>
+          <t>-1.4114712543208727</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.2683813600779731</t>
+          <t>0.2587349637042250</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>AVAX</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10000000000.0000000000000000</t>
+          <t>715748719.0000000000000000</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2.3076304943409299</t>
+          <t>18.0929378284282248</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>950035602.4219981002297306</t>
+          <t>158483046.5322474038847181</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-4.1171062432708843</t>
+          <t>-2.8486146445546264</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.4224505829713471</t>
+          <t>18.2088465726499597</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>avalanche</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AVAX</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>715748719.0000000000000000</t>
+          <t>10000000000.0000000000000000</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>18.0563866142949994</t>
+          <t>2.2125098084080854</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>277512231.3143471307445411</t>
+          <t>842236546.6902476662336096</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-8.7534014630204907</t>
+          <t>-8.1333190494953562</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>19.2499854787668663</t>
+          <t>2.2788888697682509</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="20">
@@ -1169,26 +1169,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0000121011012609</t>
+          <t>0.0000121327096448</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>179160700.8397060222354770</t>
+          <t>91280763.4448927842202984</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-4.6446322852393388</t>
+          <t>-1.6902029334514603</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0000124948779869</t>
+          <t>0.0000121774413298</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="21">
@@ -1209,26 +1209,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.1612641871230726</t>
+          <t>0.1603515264017448</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>209158732.5758688610324274</t>
+          <t>175839960.8016949767774971</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-5.4250989677994772</t>
+          <t>-2.7680135819386622</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.1681223451443682</t>
+          <t>0.1608280285671282</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="22">
@@ -1249,26 +1249,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>82.0392540018344358</t>
+          <t>83.0719974456658976</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>380928653.6802415128300928</t>
+          <t>265371587.7937274785184891</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-3.1120106443969554</t>
+          <t>-0.4287740138796887</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>84.1515138951764924</t>
+          <t>82.7151791969137098</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="23">
@@ -1289,94 +1289,94 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.2734032812218788</t>
+          <t>6.3563461114604173</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>66493161.4444789245971631</t>
+          <t>58026177.5172255242431497</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.0254139703045069</t>
+          <t>0.6184479485832027</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6.2704437178114203</t>
+          <t>6.3087267224164030</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>weth</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>WETH</t>
+          <t>DOT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1799.5273398825053161</t>
+          <t>4.0220420444769320</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>762771151.4494678994956100</t>
+          <t>118856607.5639930199991943</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-5.6317579925124591</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>-1.1203218922842832</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>3.9832083294338184</t>
+        </is>
+      </c>
       <c r="H24" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>polkadot</t>
+          <t>weth</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>DOT</t>
+          <t>WETH</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3.9693675163159851</t>
+          <t>1803.5582453447214326</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>166647428.8715563193443385</t>
+          <t>351634607.8866502859387254</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-5.0415919660323063</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>4.1158577979662966</t>
-        </is>
-      </c>
+          <t>-1.3914962654890207</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="26">
@@ -1397,166 +1397,158 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>295.1278186064349449</t>
+          <t>301.3094574964696341</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>130848701.8898557187146055</t>
+          <t>120834301.9356933888359876</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-4.5078665697049352</t>
+          <t>-0.0132785752305981</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>306.7222238186456356</t>
+          <t>300.0563088431246310</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>bitget-token-new</t>
+          <t>bitcoin-bep2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BGB</t>
+          <t>BTCB</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>4.4953743867776415</t>
+          <t>82918.3374342311547867</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>102975348.7022755820955434</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>-3.4101445289085451</t>
-        </is>
-      </c>
+          <t>1329194.1241418783688954</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>multi-collateral-dai</t>
+          <t>bitget-token-new</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DAI</t>
+          <t>BGB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.9994416371576748</t>
+          <t>4.4873733963489303</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>133002634.1544961595481004</t>
+          <t>130350448.3864484400789379</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.0095395436657100</t>
+          <t>-1.5873271680681067</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.9997016026331541</t>
+          <t>4.4079120914958401</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ethena-usde</t>
+          <t>multi-collateral-dai</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>USDE</t>
+          <t>DAI</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.9995638967534108</t>
+          <t>0.9998256637076114</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>60069868.1299716304320200</t>
+          <t>92780679.4785596128052943</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-0.0444959274790329</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>0.0381235476159860</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9999976015001149</t>
+        </is>
+      </c>
       <c r="H29" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pi</t>
+          <t>ethena-usde</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>PI</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>100000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>USDE</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.6557676791772667</t>
+          <t>0.9994212553264433</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>102747781.7607115563507776</t>
+          <t>72089375.1765701550600838</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-7.5039702654128606</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.9351907533812549</t>
-        </is>
-      </c>
+          <t>-0.0344723059474687</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="31">
@@ -1577,26 +1569,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11.8710256541012013</t>
+          <t>11.8152766309961942</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>37118853.2559679305528862</t>
+          <t>35642009.8340302874955906</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-10.7806163563423888</t>
+          <t>-5.2760517372774409</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>13.4484816344568361</t>
+          <t>11.6722781626710580</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="32">
@@ -1613,138 +1605,138 @@
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
-          <t>213.6251558370328950</t>
+          <t>213.1034746193240246</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>57335102.3512962392179541</t>
+          <t>52449805.9964736199339554</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-1.5889283298217285</t>
+          <t>-1.6267773945583563</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>217.6563196354219532</t>
+          <t>212.8114129604266611</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>pi</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>UNI</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>PI</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>100000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5.8657319459074063</t>
+          <t>0.5632098512858582</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>105605019.3122833394463062</t>
+          <t>170035690.4299406351485049</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-6.6959358538966475</t>
+          <t>-16.1413980545509194</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>6.1462011634614081</t>
+          <t>0.8041652307723401</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>aptos</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>APT</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.1008624128427572</t>
+          <t>5.8398563952840449</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>90399090.1278228038966968</t>
+          <t>71898587.6493934357782973</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-5.6826857093927840</t>
+          <t>-2.5122002575022589</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>5.3176288143448584</t>
+          <t>5.8558845994839085</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>PEPE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>420690000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>APT</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.0000070768532403</t>
+          <t>5.0081770567281167</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>857327383.0086401416757517</t>
+          <t>80939686.9357720727199153</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-8.5660771845192507</t>
+          <t>-4.3204878749971619</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0000075063694375</t>
+          <t>5.0811383199261371</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="36">
@@ -1761,214 +1753,218 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.4449698324905970</t>
+          <t>2.4857618059096666</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>139662458.0853478439029399</t>
+          <t>109715147.7172333156271118</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-7.7882160390105607</t>
+          <t>-1.7554486237511743</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.6074781249355288</t>
+          <t>2.4574715279756189</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OKB</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
+          <t>PEPE</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>420690000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>47.1813584512848093</t>
+          <t>0.0000067238990661</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>3206733.7162890332652155</t>
+          <t>607419249.1765057180816109</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-2.2987073394795198</t>
+          <t>-6.5457352085975612</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>47.4443804865248700</t>
+          <t>0.0000067452907851</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MNT</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>6219316795.0000000000000000</t>
-        </is>
-      </c>
+          <t>OKB</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.7764735629821558</t>
+          <t>46.8492319351349696</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>163771963.7224363736647524</t>
+          <t>4838111.6212121572964562</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-3.1730253716360998</t>
+          <t>-2.2656185688436360</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.7933856661937006</t>
+          <t>46.0982003373340057</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>CRO</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>30263013692.0000000000000000</t>
-        </is>
-      </c>
+          <t>ONDO</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.0959991228209915</t>
+          <t>0.8201942721252772</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>55193668.3841560111077771</t>
+          <t>197769450.8406272525045978</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>-7.4693275075352338</t>
+          <t>0.5615920374035312</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.1040418566991901</t>
+          <t>0.8025796211358725</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>first-digital-usd</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FDUSD</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
+          <t>CRO</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>30263013692.0000000000000000</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.9803405134599789</t>
+          <t>0.0944623204984758</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4154241194.4448362813623991</t>
+          <t>28741091.0056590555977305</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-1.6489834919923842</t>
+          <t>-4.9539519934704238</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.9719757358097704</t>
+          <t>0.0958199441211254</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ONDO</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
+          <t>MNT</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>6219316795.0000000000000000</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.7913688194386373</t>
+          <t>0.7439166559388459</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>263172550.7415073121089838</t>
+          <t>202166274.9902645203872328</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-3.7995093954652752</t>
+          <t>-4.6470941090765420</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.8327282311500948</t>
+          <t>0.7534957552303403</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="42">
@@ -1985,26 +1981,26 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5.0766400996129673</t>
+          <t>5.1295108322247221</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>43870906.8417242857482617</t>
+          <t>41030111.0364930004124715</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-6.7178131807568690</t>
+          <t>-1.4617360140317006</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>5.2690743408126849</t>
+          <t>5.0968555141327041</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="43">
@@ -2025,174 +2021,170 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16.0652184627791784</t>
+          <t>16.1173086162319034</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>65186288.1192406088512800</t>
+          <t>59310036.8617622743681386</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-4.8755047414270330</t>
+          <t>-1.8650824448783151</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>16.6257494928156630</t>
+          <t>16.1336781416935530</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>151.3763387845022953</t>
+          <t>0.9945435438227725</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>206391229.1568676625257128</t>
+          <t>1893500302.2904696800425210</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>-9.0352510515365737</t>
+          <t>0.8580311781834178</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>160.3489168614322072</t>
+          <t>0.9929297843495151</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>0.1862187074564521</t>
+          <t>149.1650045945057847</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>77650619.5158777693562095</t>
+          <t>104199265.6277882619335571</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-7.8997778522315448</t>
+          <t>-3.7016343946005368</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>0.1951577902823479</t>
+          <t>151.1010997107186653</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>22.2541787738149842</t>
+          <t>0.1901981559903554</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>13883428.0420554409853859</t>
+          <t>47652838.3938715098582422</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-2.8458740608634457</t>
+          <t>-0.0105678979593152</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>22.6910890554908084</t>
+          <t>0.1859933339740156</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>VET</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>86712634466.0000000000000000</t>
-        </is>
-      </c>
+          <t>GT</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>0.0215658824539180</t>
+          <t>22.0340473034828444</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>33884662.2773940979962017</t>
+          <t>10814573.0847137838726145</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-8.0999492923305970</t>
+          <t>-1.8118169079963734</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>0.0228479790826884</t>
+          <t>21.8849981713833054</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="48">
@@ -2213,446 +2205,446 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9.2324173922226601</t>
+          <t>9.4428048960226919</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>207761439.6382333439878011</t>
+          <t>164532598.2746133836744254</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>-11.3681183178219074</t>
+          <t>1.0263810760099959</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>10.0932972430703360</t>
+          <t>9.2218496157055197</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>21000000.0000000000000000</t>
+          <t>86712634466.0000000000000000</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>213.0537947234934181</t>
+          <t>0.0216832818439431</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>99570571.7360041446653135</t>
+          <t>24633194.0345852211574999</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-7.8414740427921809</t>
+          <t>-1.7818459669162015</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>225.0489583384513708</t>
+          <t>0.0215746159394813</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ethena</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ENA</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
+          <t>TAO</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>0.3361112231248893</t>
+          <t>215.8595556971618155</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>184509737.1108449178466866</t>
+          <t>75299193.5459967496151823</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-9.3467411087448984</t>
+          <t>-0.8799862493909068</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>0.3624869361772366</t>
+          <t>209.1094002906920709</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>ATOM</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2.7011773562676319</t>
+          <t>4.6813795159104612</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>123753603.4866047602595904</t>
+          <t>88316241.2324245990545934</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>-4.9468487430302695</t>
+          <t>6.1799530151030785</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>2.7798948251427674</t>
+          <t>4.4863295071236357</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>render</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>RENDER</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>644168762.0000000000000000</t>
-        </is>
-      </c>
+          <t>FIL</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>3.3174063765861566</t>
+          <t>2.7171848172730621</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>108154873.7611594389851843</t>
+          <t>77907897.4627414221989308</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-10.2381629158107651</t>
+          <t>-1.9730046521347320</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>3.6053468367994682</t>
+          <t>2.6954786122629730</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>TIA</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
+          <t>RENDER</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>644168762.0000000000000000</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2.9189701338259759</t>
+          <t>3.2750279357731704</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>60623724.6674142093011038</t>
+          <t>66891504.1421125543793080</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-7.3445814527942792</t>
+          <t>-3.5611224793036427</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3.0898473649933640</t>
+          <t>3.2556410698820642</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>cosmos</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ATOM</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>KAS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>28704026601.0000000000000000</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>4.1926663553059648</t>
+          <t>0.0644197367330600</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>72092326.3966271802284503</t>
+          <t>59998500.4242105122261160</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-4.3180250220139154</t>
+          <t>-0.1438115918113060</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>4.3829559389031905</t>
+          <t>0.0632990459714779</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>KAS</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>28704026601.0000000000000000</t>
-        </is>
-      </c>
+          <t>TIA</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>0.0629529511495507</t>
+          <t>2.8398031246862364</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>77007554.6986966632875837</t>
+          <t>73854421.5516319550080369</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-8.4592922362994137</t>
+          <t>-3.3826312258638682</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>0.0662283556835476</t>
+          <t>2.7985228289103692</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ALGO</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>10000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>ENA</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.1768010587554547</t>
+          <t>0.3131818502436406</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>80245498.9281074805544185</t>
+          <t>158421608.3451164890246385</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-6.4953478540050034</t>
+          <t>-7.2316039006806107</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>0.1874739495398206</t>
+          <t>0.3124894893270447</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ARB</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>ALGO</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>10000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.3074917326911489</t>
+          <t>0.1800405969872876</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>126219617.4180657172976422</t>
+          <t>50083736.0938727905801870</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-7.9595727501672659</t>
+          <t>-0.2703286499111477</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>0.3241460492829289</t>
+          <t>0.1763102660009111</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>3175000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>ARB</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.4704835493360852</t>
+          <t>0.3093914051768635</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>156344674.3284973092926316</t>
+          <t>83816986.1302136674680714</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-7.1762786400131172</t>
+          <t>-1.6321276522673720</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0.4920631421067934</t>
+          <t>0.3055241213400205</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>200000000.0000000000000000</t>
+          <t>3175000000.0000000000000000</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10.6579122592196186</t>
+          <t>0.4813552694539918</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>1441370.8174864626168103</t>
+          <t>103745700.6901038423020574</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>-2.2828393116175665</t>
+          <t>0.3246189886181707</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>10.8387379787541175</t>
+          <t>0.4637408903545136</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="60">
@@ -2673,134 +2665,138 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.7989342972663305</t>
+          <t>0.8508576725555305</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>618718409.6060721840420099</t>
+          <t>415040297.8732620811570894</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>16.0624682909018043</t>
+          <t>1.2838107193078891</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>0.7970777844200969</t>
+          <t>0.8241222227342993</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DEXE</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr"/>
+          <t>KCS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>200000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>14.5331224517568173</t>
+          <t>10.2792383197410813</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>36808371.9064981839231130</t>
+          <t>1217508.4870785889144231</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>5.9017033886042926</t>
+          <t>-4.2130390636290026</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>14.4202611910292096</t>
+          <t>10.4330506121526672</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>optimism-ethereum</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>OP</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>0.7051860029526941</t>
+          <t>14.9338755492096651</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>103082744.9633326257767066</t>
+          <t>14858363.7724513116261852</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-6.9114623991494667</t>
+          <t>-0.1185698548443233</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>0.7286243291874472</t>
+          <t>14.9944257213348782</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>story-protocol</t>
+          <t>optimism-ethereum</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>IP</t>
+          <t>OP</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>4.3397489477601089</t>
+          <t>0.6995951516544625</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>130031223.4069393101389382</t>
+          <t>75173817.3236268780459462</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-5.4763290187399412</t>
+          <t>-1.9455330180055803</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>4.3462690165955788</t>
+          <t>0.6885122818490065</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="64">
@@ -2821,26 +2817,26 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1282.7246926264043497</t>
+          <t>1287.7942590657757938</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>43115763.7509896925444992</t>
+          <t>27377109.1597253223052899</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-7.3986419941740069</t>
+          <t>-1.6619337811471385</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>1365.3799953183783240</t>
+          <t>1281.4308950865423352</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="65">
@@ -2861,66 +2857,62 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.4314311030418484</t>
+          <t>0.4323269173284117</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>83558730.9392813577121923</t>
+          <t>66269380.3585075310707269</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-7.9187968116349472</t>
+          <t>-2.8460927903403177</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>0.4564764069373379</t>
+          <t>0.4293153537259046</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>JUP</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>3000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>0.3809972807813897</t>
+          <t>4.1949033464657782</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>83981899.1227985655499860</t>
+          <t>42801485.1673118420547645</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-10.5641287729592898</t>
+          <t>-6.2759372036950413</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0.4053061703516297</t>
+          <t>4.2978799271148325</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="67">
@@ -2937,206 +2929,214 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.0649588373447940</t>
+          <t>0.0667277095610512</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>25689817.8851877974107425</t>
+          <t>26877605.1628252547783744</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>-5.9025355115616639</t>
+          <t>0.6577119765427367</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0.0674141123623088</t>
+          <t>0.0657912389006506</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>wbnb</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>WBNB</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>JUP</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>3000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>591.8167339160372281</t>
+          <t>0.3851465106838732</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>9414724.4848437618451299</t>
+          <t>38088685.2996268537645216</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-4.0818789090862495</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr"/>
+          <t>-0.2820149391063747</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3763142390885347</t>
+        </is>
+      </c>
       <c r="H68" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>movement</t>
+          <t>wbnb</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MOVE</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>10000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>WBNB</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>0.3802503973281985</t>
+          <t>603.3337944966488238</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>87621597.7575643036404251</t>
+          <t>10242295.5810794068557694</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>-8.2466937147805865</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>0.4028765948446518</t>
-        </is>
-      </c>
+          <t>0.4177536786911600</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>worldcoin-org</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>WLD</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr"/>
+          <t>MOVE</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>10000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.7235265511883205</t>
+          <t>0.3897605813964300</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>124472712.5707123873700160</t>
+          <t>53696732.1536843564784601</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-10.1422839818522630</t>
+          <t>-0.0847266140628771</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>0.7755519829311916</t>
+          <t>0.3874908428413564</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>STX</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>1818000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>WLD</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.5772256286112338</t>
+          <t>0.7576009273172640</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>29027972.6136404733712690</t>
+          <t>89294132.2884662480858444</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>-6.5859868875346503</t>
+          <t>1.0517345237154449</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>0.6097112379450383</t>
+          <t>0.7389761511357680</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>usual-usd</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>USD0</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>1818000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.9977611865631149</t>
+          <t>0.5812396411934291</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10624202.7569959444520966</t>
+          <t>17268145.2069761681380964</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-0.0108396743382976</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr"/>
+          <t>-1.8861973383475203</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.5781984474027450</t>
+        </is>
+      </c>
       <c r="H72" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="73">
@@ -3153,66 +3153,58 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.0000111191790529</t>
+          <t>0.0000108971074636</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>169405501.2888672741883050</t>
+          <t>70618971.6876836585416902</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-11.4749154618247779</t>
+          <t>-4.3928386196638694</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>0.0000121616345354</t>
+          <t>0.0000109112235835</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>immutable-x</t>
+          <t>usual-usd</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>IMX</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>2000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>USD0</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.4803172309654802</t>
+          <t>0.9973904486700141</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>20185722.7658891000569318</t>
+          <t>34169057.3130459655853384</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-9.1954707409468489</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>0.5115406053816249</t>
-        </is>
-      </c>
+          <t>-0.0319071344452438</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="75">
@@ -3233,22 +3225,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2.1829477400588575</t>
+          <t>2.1749559814089651</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>24615531.4703343116913003</t>
+          <t>11380600.4153233454801915</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-2.2479168644182340</t>
+          <t>-0.3909122075854143</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="76">
@@ -3269,210 +3261,214 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8.3600528277244780</t>
+          <t>8.3505228502079086</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>57879859.3146569757984006</t>
+          <t>40676004.1288185040561525</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-6.8152605416300164</t>
+          <t>-3.0698359480976452</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>8.7692319180133027</t>
+          <t>8.3614104004802462</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>GRT</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr"/>
+          <t>QNT</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>14881364.0000000000000000</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>0.0829952825141067</t>
+          <t>68.1842145608809014</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>17460462.0733826995460028</t>
+          <t>17204987.5687517588634413</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>-8.0821536033222311</t>
+          <t>2.9243173801804411</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>0.0871543507481238</t>
+          <t>67.4345225777939089</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>sei</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SEI</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>IMX</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.1651720644897385</t>
+          <t>0.4629613420894756</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>86287909.4374265123692679</t>
+          <t>28983972.4538818394898974</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>-6.5828626829290493</t>
+          <t>-4.8336034833534104</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>0.1703634202729550</t>
+          <t>0.4693974301488583</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>QNT</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>14881364.0000000000000000</t>
-        </is>
-      </c>
+          <t>GRT</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>66.3309399341314000</t>
+          <t>0.0822477305691922</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>20273237.4194841482056515</t>
+          <t>15552392.4943102005626263</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-5.9802822581433515</t>
+          <t>-2.7865119540698699</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>68.9443660004974792</t>
+          <t>0.0823187111796653</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>flare</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>FLR</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.0129638754438637</t>
+          <t>0.1643655552662043</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>9619412.2731852816857456</t>
+          <t>52797208.4306133316994457</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-4.9341465224229093</t>
+          <t>-1.6543761944768193</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>0.0132479430176268</t>
+          <t>0.1623764884374243</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>tether-gold</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>XAUT</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>3172.0955772045413589</t>
+          <t>0.0130162489996485</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>18621606.6065739577873459</t>
+          <t>12437019.2329901384782136</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>1.1437602519634530</t>
+          <t>-2.8782479111850467</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>3141.4673740374267675</t>
+          <t>0.0131699390999529</t>
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="82">
@@ -3493,542 +3489,542 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.7742628141280753</t>
+          <t>0.7793916687351255</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>19909220.0106427608639568</t>
+          <t>15632203.6550627106860665</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-7.3938295331720834</t>
+          <t>-2.7504531653023376</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>0.8156109411025807</t>
+          <t>0.7820274086110005</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>paypal-usd</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>PYUSD</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>0.9979013589987540</t>
+          <t>3127.0257661125320199</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>10969382.0682096050446169</t>
+          <t>24308559.4793368765594522</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-0.0982497072724397</t>
+          <t>-1.6082279739440959</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0.9984498018536391</t>
+          <t>3138.6613499294444889</t>
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.8198635814877261</t>
+          <t>0.9999088688716483</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>48053255.8477282294296853</t>
+          <t>14954437.1756035032809470</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>-9.0610562952471996</t>
+          <t>0.1654347863220956</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>0.8705865640083251</t>
+          <t>0.9987240307708662</t>
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BERA</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>6.5779368193435431</t>
+          <t>0.8307201970545026</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>141240952.2475507283641030</t>
+          <t>34490788.6110410580013880</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-8.3849481472067474</t>
+          <t>-0.8197655482719808</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>7.0510273432518136</t>
+          <t>0.8159793681766345</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>0.6472246192043548</t>
+          <t>1.0557749126647233</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>12713086.5731050814114186</t>
+          <t>4806153.0068617116091884</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>-2.5139151873065757</t>
+          <t>2.5283314133446925</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>0.6575912659797805</t>
+          <t>1.0383886464522431</t>
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>NEXO</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr"/>
+          <t>CRV</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>3030303030.2990000000000000</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>1.0375865418022930</t>
+          <t>0.5154495177071320</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>5769068.5985052661045676</t>
+          <t>132012358.0597956189250134</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-4.6042503838213610</t>
+          <t>-0.6085269845072800</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>1.0619929025767455</t>
+          <t>0.5146555420974264</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>pax-gold</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>PAXG</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>3174.2879011608858444</t>
+          <t>0.6485090480513932</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>46514267.2703735747854131</t>
+          <t>16183826.1063839972132625</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>1.2723864042311192</t>
+          <t>-2.1328030697565219</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>3139.8683777354961234</t>
+          <t>0.6516303674777812</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>jito</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>JTO</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2.0998598230719209</t>
+          <t>3119.9530362311329914</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>31753863.8763193247194051</t>
+          <t>64848201.3449101426939176</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>-8.6572526742083192</t>
+          <t>-2.0033390057143209</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>2.2484393911852824</t>
+          <t>3124.0185888936910372</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>CRV</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>3030303030.2990000000000000</t>
-        </is>
-      </c>
+          <t>KAIA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.4939594593648572</t>
+          <t>0.1094482535602096</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>113413935.9443063035529039</t>
+          <t>16597249.8267698957944514</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>-8.7797686202355787</t>
+          <t>2.6764054814543138</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.5232457457379790</t>
+          <t>0.1055254130447434</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SAND</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>GALA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.2580747073404595</t>
+          <t>0.0148788872259507</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>30344471.8133608117336663</t>
+          <t>38541874.3043773216343586</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-6.6672235511530756</t>
+          <t>-2.2005684470047900</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.2698282551248925</t>
+          <t>0.0147510890254554</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>GALA</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>BERA</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>0.0144855651831446</t>
+          <t>6.0357690720617946</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>50670420.2457224819013234</t>
+          <t>123360041.1774451695888953</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>-8.9431272680423651</t>
+          <t>-9.8721102499256620</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>0.0154744640979484</t>
+          <t>6.2048016707670206</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>bittorrent</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>BTTOLD</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.0000006321804346</t>
+          <t>0.2610732359473454</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3084385.4201997190508947</t>
+          <t>17802608.3525453530411660</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-4.6883713407360239</t>
+          <t>-1.0201531679179380</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.0000006598273811</t>
+          <t>0.2593811432076112</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ZEC</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>21000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>JTO</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>39.0301363422141680</t>
+          <t>1.9809491894725304</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>16863800.7017040504103890</t>
+          <t>21943095.2134035006710925</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-4.5464870864694444</t>
+          <t>-7.7774810791092004</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>40.3079752594235728</t>
+          <t>2.0208981849400029</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>KAIA</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.1029233410260170</t>
+          <t>0.0000006275834289</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>13233301.6841600413415433</t>
+          <t>2672549.1326792809207219</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>-1.8573669227130817</t>
+          <t>-1.8310341347316349</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>0.1058577877482666</t>
+          <t>0.0000006310559119</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>BSV</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>ZEC</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>21000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>30.6198317427042535</t>
+          <t>38.8682726167078301</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>21336112.5626587131841748</t>
+          <t>17589606.8243598094679950</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>-5.4555709152411104</t>
+          <t>-1.8112299388711173</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>31.7530084077214476</t>
+          <t>38.8955809649987461</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="97">
@@ -4045,102 +4041,98 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.1622933860259692</t>
+          <t>0.1639680861011174</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>24872663.8319693326911068</t>
+          <t>16218542.8556078441813787</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>-7.1585723747440809</t>
+          <t>-1.2739294506006745</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>0.1719086823078441</t>
+          <t>0.1607559931311421</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>0.3687013922389114</t>
+          <t>30.5222910861393232</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>14874825.8639792560475810</t>
+          <t>16101837.0371350344721654</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-5.8234384992185777</t>
+          <t>-1.9670209388980627</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>0.3842730029677338</t>
+          <t>30.4896504190209719</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>RAY</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>555000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>FLOW</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>1.8958909667422309</t>
+          <t>0.3692971991273471</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>120346457.7353365418867770</t>
+          <t>11313506.3634687906192407</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>5.0350585373941399</t>
+          <t>-1.7643886359324710</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>1.8977556250994675</t>
+          <t>0.3687950927488156</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="100">
@@ -4161,26 +4153,26 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>15.1051282612126291</t>
+          <t>15.0700378580571582</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>54278468.8067641983260407</t>
+          <t>35032077.5752526558564601</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>-7.7821197490110293</t>
+          <t>-2.2666965909155138</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>16.0574548650094182</t>
+          <t>15.0677372032107380</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
     <row r="101">
@@ -4201,26 +4193,26 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1.8083624636453129</t>
+          <t>1.8070531610620074</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>51409028.9650064445307765</t>
+          <t>33374111.7189775186268324</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>-5.2921268982566718</t>
+          <t>-3.2757015022105498</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>1.8795228995008039</t>
+          <t>1.8055525629095766</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1743637667552</v>
+        <v>1743732799591</v>
       </c>
     </row>
   </sheetData>

--- a/src/static/xlsx/df_api_symbol_xlsx.xlsx
+++ b/src/static/xlsx/df_api_symbol_xlsx.xlsx
@@ -493,17 +493,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>82910.2043773248061854</t>
+          <t>82967.8307801323916647</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>14252713672.2124541925028697</t>
+          <t>14107744433.5487372994975383</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-0.9832242352240397</t>
+          <t>-0.6584580127744259</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="3">
@@ -529,17 +529,17 @@
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1801.2157457279158390</t>
+          <t>1797.9319110850728821</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8379047521.1587873299235214</t>
+          <t>8429271203.0232382946532389</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-1.4300611569390545</t>
+          <t>-1.5231721691024611</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="4">
@@ -565,17 +565,17 @@
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.0010097880462923</t>
+          <t>1.0005635997619630</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>33326605272.6960059283315126</t>
+          <t>33173819266.9312528915376412</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.1253355354126054</t>
+          <t>0.1359647693297703</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -584,7 +584,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="5">
@@ -605,17 +605,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.0554547759802728</t>
+          <t>2.0622220107908055</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2176951429.4426916881320363</t>
+          <t>2186391430.9425050887051214</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>-0.0556294469190710</t>
+          <t>0.5147830737195366</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -624,7 +624,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="6">
@@ -645,17 +645,17 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>591.9560271876263756</t>
+          <t>592.5452089275309281</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>657429420.0399308376276231</t>
+          <t>657356042.5261410581236945</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-1.9265868886641345</t>
+          <t>-1.6281628802940821</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="7">
@@ -681,17 +681,17 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.9986370857550242</t>
+          <t>0.9993174148267981</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>7313590304.8258103819825408</t>
+          <t>7498615302.2969488428907364</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-0.1630551898069191</t>
+          <t>-0.0841522242964103</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -700,7 +700,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="8">
@@ -717,17 +717,17 @@
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>115.5226092185693154</t>
+          <t>115.7218512034410027</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2525427124.3548797980585805</t>
+          <t>2528339967.6952689082204056</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-3.5943849126880925</t>
+          <t>-3.2714322803600456</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="9">
@@ -753,17 +753,17 @@
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.1615422713868557</t>
+          <t>0.1619815940344282</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>777704463.3575495629039487</t>
+          <t>780279456.2710433474657387</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-2.8513004288431612</t>
+          <t>-2.1955292965518464</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="10">
@@ -793,17 +793,17 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.6474338634205431</t>
+          <t>0.6495169244160043</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>386661232.3456318468502065</t>
+          <t>384736081.6159793843990332</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.9594468516662389</t>
+          <t>-0.4898134003728241</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -812,7 +812,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="11">
@@ -829,17 +829,17 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.2387796045245121</t>
+          <t>0.2390594199433895</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>265942595.2094364353669026</t>
+          <t>265911906.2840598313997664</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.1641083435300922</t>
+          <t>1.1845657510460256</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -848,7 +848,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="12">
@@ -865,17 +865,17 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1797.8556438498190561</t>
+          <t>1796.1410659299423701</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8591236.6291930149298285</t>
+          <t>8256950.4200978353169496</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>-1.7737999948330256</t>
+          <t>-1.6719394783319372</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="13">
@@ -901,17 +901,17 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr">
         <is>
-          <t>82580.5833333020327761</t>
+          <t>82566.0828123558867500</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>171204770.0022461998485067</t>
+          <t>170500205.5803994682783192</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>-1.1179921874324288</t>
+          <t>-0.8782277859281230</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="14">
@@ -937,17 +937,17 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9.5271584907186672</t>
+          <t>9.5268211075894107</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4465538.0329942770265210</t>
+          <t>4483217.5144805763233896</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.7788413091981314</t>
+          <t>1.8176283432783825</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="15">
@@ -973,17 +973,17 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3.5159452082307932</t>
+          <t>3.5267244966933720</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>127467371.1532184587890645</t>
+          <t>127568567.0513075555603984</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>-8.1337986575944765</t>
+          <t>-7.6157562428790223</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -992,7 +992,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="16">
@@ -1009,17 +1009,17 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12.7663913765258147</t>
+          <t>12.7894943035094844</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>301182209.8381416242378517</t>
+          <t>302391632.4867341921337386</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-3.2780481309741452</t>
+          <t>-2.8400876426498982</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1028,7 +1028,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="17">
@@ -1049,17 +1049,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.2593519731708447</t>
+          <t>0.2602584839313257</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>79689196.5923534822481579</t>
+          <t>79422563.7671512995473797</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>-1.4114712543208727</t>
+          <t>-1.1248447236893661</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="18">
@@ -1089,17 +1089,17 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>18.0929378284282248</t>
+          <t>18.1083994266076079</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>158483046.5322474038847181</t>
+          <t>158501147.7565453705015643</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-2.8486146445546264</t>
+          <t>-2.4695118058672556</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="19">
@@ -1129,17 +1129,17 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2.2125098084080854</t>
+          <t>2.2140419670608732</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>842236546.6902476662336096</t>
+          <t>844287187.0155004536733605</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-8.1333190494953562</t>
+          <t>-7.9242829197045426</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1148,7 +1148,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="20">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0000121327096448</t>
+          <t>0.0000121504908210</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91280763.4448927842202984</t>
+          <t>91504699.1216735698717030</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-1.6902029334514603</t>
+          <t>-1.3656182362490318</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1188,7 +1188,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="21">
@@ -1209,17 +1209,17 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.1603515264017448</t>
+          <t>0.1604508386252252</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>175839960.8016949767774971</t>
+          <t>176713312.0481497619040502</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-2.7680135819386622</t>
+          <t>-2.8467990367368325</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1228,7 +1228,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="22">
@@ -1249,17 +1249,17 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>83.0719974456658976</t>
+          <t>83.3397488798753039</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>265371587.7937274785184891</t>
+          <t>265851298.8778181830532060</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-0.4287740138796887</t>
+          <t>0.4241671606118922</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1268,7 +1268,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="23">
@@ -1289,17 +1289,17 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>6.3563461114604173</t>
+          <t>6.3512320721042230</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>58026177.5172255242431497</t>
+          <t>57813788.5772455225256476</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.6184479485832027</t>
+          <t>0.7872214547649776</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="24">
@@ -1325,17 +1325,17 @@
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr">
         <is>
-          <t>4.0220420444769320</t>
+          <t>4.0268792163578090</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>118856607.5639930199991943</t>
+          <t>119167701.4329620690970135</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-1.1203218922842832</t>
+          <t>-0.7529575919474723</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1344,7 +1344,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="25">
@@ -1361,22 +1361,22 @@
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1803.5582453447214326</t>
+          <t>1802.9714289265173198</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>351634607.8866502859387254</t>
+          <t>558404759.1658270045613629</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-1.3914962654890207</t>
+          <t>-1.1629677105344697</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="26">
@@ -1397,17 +1397,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>301.3094574964696341</t>
+          <t>301.6266153073320721</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>120834301.9356933888359876</t>
+          <t>121146470.5067753206009679</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-0.0132785752305981</t>
+          <t>0.0708561274590550</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1416,7 +1416,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="27">
@@ -1433,18 +1433,18 @@
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
-          <t>82918.3374342311547867</t>
+          <t>82822.4756270612015957</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1329194.1241418783688954</t>
+          <t>1346011.7282522833694576</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="28">
@@ -1461,17 +1461,17 @@
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr">
         <is>
-          <t>4.4873733963489303</t>
+          <t>4.4842476127139824</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>130350448.3864484400789379</t>
+          <t>129282352.1191770751131378</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>-1.5873271680681067</t>
+          <t>-1.3658463542392778</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1480,7 +1480,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="29">
@@ -1497,17 +1497,17 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.9998256637076114</t>
+          <t>0.9997944669727922</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>92780679.4785596128052943</t>
+          <t>101899902.2106589546687036</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.0381235476159860</t>
+          <t>0.0123305690847124</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1516,7 +1516,7 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="30">
@@ -1533,98 +1533,98 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.9994212553264433</t>
+          <t>0.9993162237029355</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>72089375.1765701550600838</t>
+          <t>71705499.7888796652127581</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-0.0344723059474687</t>
+          <t>-0.0329036455533856</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>hyperliquid</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>HYPE</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>1000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>XMR</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr">
         <is>
-          <t>11.8152766309961942</t>
+          <t>214.2865668332893800</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>35642009.8340302874955906</t>
+          <t>52411103.9753237195279812</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-5.2760517372774409</t>
+          <t>-1.1587139948888021</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>11.6722781626710580</t>
+          <t>212.8114129604266611</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>XMR</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
+          <t>HYPE</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>1000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>213.1034746193240246</t>
+          <t>11.8058114929213116</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>52449805.9964736199339554</t>
+          <t>35541700.0315276496263249</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>-1.6267773945583563</t>
+          <t>-4.6102315661837332</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>212.8114129604266611</t>
+          <t>11.6722781626710580</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="33">
@@ -1645,17 +1645,17 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.5632098512858582</t>
+          <t>0.5596120266519418</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>170035690.4299406351485049</t>
+          <t>169550326.6105340780557599</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>-16.1413980545509194</t>
+          <t>-16.4681648139967202</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1664,7 +1664,7 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="34">
@@ -1681,17 +1681,17 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>5.8398563952840449</t>
+          <t>5.8571630332607592</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>71898587.6493934357782973</t>
+          <t>75539850.0136883477030018</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>-2.5122002575022589</t>
+          <t>-2.1869819647474573</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1700,7 +1700,7 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="35">
@@ -1717,17 +1717,17 @@
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>5.0081770567281167</t>
+          <t>5.0228476387175719</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>80939686.9357720727199153</t>
+          <t>81314282.6156492071114709</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-4.3204878749971619</t>
+          <t>-3.9055784857896435</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="36">
@@ -1753,17 +1753,17 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2.4857618059096666</t>
+          <t>2.4914012162803030</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>109715147.7172333156271118</t>
+          <t>109819404.9594711715920248</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>-1.7554486237511743</t>
+          <t>-1.3287586179365620</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="37">
@@ -1793,17 +1793,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.0000067238990661</t>
+          <t>0.0000067345498960</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>607419249.1765057180816109</t>
+          <t>611384905.9612847775544383</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-6.5457352085975612</t>
+          <t>-6.2115299955400866</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="38">
@@ -1829,17 +1829,17 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr">
         <is>
-          <t>46.8492319351349696</t>
+          <t>46.8520633660625900</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4838111.6212121572964562</t>
+          <t>4840287.9698501034419489</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-2.2656185688436360</t>
+          <t>-2.1533392946614040</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1848,7 +1848,7 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="39">
@@ -1865,17 +1865,17 @@
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.8201942721252772</t>
+          <t>0.8186517503252433</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>197769450.8406272525045978</t>
+          <t>199688328.0412174709617483</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.5615920374035312</t>
+          <t>0.8229652787207277</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -1884,87 +1884,87 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>crypto-com-coin</t>
+          <t>mantle</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>CRO</t>
+          <t>MNT</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>30263013692.0000000000000000</t>
+          <t>6219316795.0000000000000000</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.0944623204984758</t>
+          <t>0.7459622142643853</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>28741091.0056590555977305</t>
+          <t>202445426.6152854905733741</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>-4.9539519934704238</t>
+          <t>-4.5530854739201280</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0958199441211254</t>
+          <t>0.7534957552303403</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>mantle</t>
+          <t>crypto-com-coin</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>MNT</t>
+          <t>CRO</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6219316795.0000000000000000</t>
+          <t>30263013692.0000000000000000</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.7439166559388459</t>
+          <t>0.0944187851819874</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>202166274.9902645203872328</t>
+          <t>28814881.3587210015192319</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>-4.6470941090765420</t>
+          <t>-4.5710223235279669</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>0.7534957552303403</t>
+          <t>0.0958199441211254</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="42">
@@ -1981,17 +1981,17 @@
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr">
         <is>
-          <t>5.1295108322247221</t>
+          <t>5.1326079123668040</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>41030111.0364930004124715</t>
+          <t>41018972.8535994602136315</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>-1.4617360140317006</t>
+          <t>-1.1780785772298716</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2000,7 +2000,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="43">
@@ -2021,17 +2021,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>16.1173086162319034</t>
+          <t>16.1488995392214101</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>59310036.8617622743681386</t>
+          <t>59069037.6710519772405463</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>-1.8650824448783151</t>
+          <t>-1.4379167923701255</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2040,7 +2040,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="44">
@@ -2057,17 +2057,17 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>0.9945435438227725</t>
+          <t>0.9945465749358113</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>1893500302.2904696800425210</t>
+          <t>1892247179.1454555293047897</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0.8580311781834178</t>
+          <t>0.8997218006979488</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2076,7 +2076,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="45">
@@ -2093,17 +2093,17 @@
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr">
         <is>
-          <t>149.1650045945057847</t>
+          <t>149.3314767037262250</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>104199265.6277882619335571</t>
+          <t>104008944.5786416341199872</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>-3.7016343946005368</t>
+          <t>-3.1510586715056725</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="46">
@@ -2129,17 +2129,17 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0.1901981559903554</t>
+          <t>0.1904044940054451</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>47652838.3938715098582422</t>
+          <t>47581495.4844204009663190</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>-0.0105678979593152</t>
+          <t>0.2955885086611611</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="47">
@@ -2165,17 +2165,17 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>22.0340473034828444</t>
+          <t>22.0793144234469255</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10814573.0847137838726145</t>
+          <t>11240339.5406891433155644</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>-1.8118169079963734</t>
+          <t>-1.3623007047734748</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2184,7 +2184,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="48">
@@ -2205,17 +2205,17 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>9.4428048960226919</t>
+          <t>9.4327314116598399</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>164532598.2746133836744254</t>
+          <t>164079928.1031789463497087</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>1.0263810760099959</t>
+          <t>1.1201679276021422</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -2224,7 +2224,7 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="49">
@@ -2245,17 +2245,17 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0.0216832818439431</t>
+          <t>0.0217091453532027</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>24633194.0345852211574999</t>
+          <t>24724746.3160975274985289</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>-1.7818459669162015</t>
+          <t>-1.3963637836476234</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2264,7 +2264,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="50">
@@ -2285,17 +2285,17 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>215.8595556971618155</t>
+          <t>215.9094721244208149</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>75299193.5459967496151823</t>
+          <t>75111682.2965089278534251</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>-0.8799862493909068</t>
+          <t>-0.1928029677414954</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="51">
@@ -2321,17 +2321,17 @@
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr">
         <is>
-          <t>4.6813795159104612</t>
+          <t>4.7076164879750037</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>88316241.2324245990545934</t>
+          <t>90182599.7838709976415224</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>6.1799530151030785</t>
+          <t>7.3193416806454768</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -2340,7 +2340,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="52">
@@ -2357,17 +2357,17 @@
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2.7171848172730621</t>
+          <t>2.7218141516328461</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>77907897.4627414221989308</t>
+          <t>78186334.1232598345053741</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>-1.9730046521347320</t>
+          <t>-1.5355013915598845</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2376,7 +2376,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="53">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>3.2750279357731704</t>
+          <t>3.2802064633579454</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>66891504.1421125543793080</t>
+          <t>67020751.5936169865681002</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>-3.5611224793036427</t>
+          <t>-3.4583958305676183</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2416,7 +2416,7 @@
         </is>
       </c>
       <c r="H53" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="54">
@@ -2437,17 +2437,17 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0.0644197367330600</t>
+          <t>0.0645778242850623</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>59998500.4242105122261160</t>
+          <t>61816173.5177214367916986</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>-0.1438115918113060</t>
+          <t>0.3842634072787630</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2456,7 +2456,7 @@
         </is>
       </c>
       <c r="H54" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="55">
@@ -2473,17 +2473,17 @@
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2.8398031246862364</t>
+          <t>2.8452478689650039</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>73854421.5516319550080369</t>
+          <t>74166541.7648208040880573</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>-3.3826312258638682</t>
+          <t>-3.3934022897352474</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="H55" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="56">
@@ -2509,17 +2509,17 @@
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr">
         <is>
-          <t>0.3131818502436406</t>
+          <t>0.3132431227267917</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>158421608.3451164890246385</t>
+          <t>158120965.8952818102618221</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>-7.2316039006806107</t>
+          <t>-6.9850933516220862</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="H56" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="57">
@@ -2549,17 +2549,17 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>0.1800405969872876</t>
+          <t>0.1804319152442143</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>50083736.0938727905801870</t>
+          <t>50246179.2362305518353860</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>-0.2703286499111477</t>
+          <t>0.2262622641024256</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2568,7 +2568,7 @@
         </is>
       </c>
       <c r="H57" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="58">
@@ -2585,17 +2585,17 @@
       <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>0.3093914051768635</t>
+          <t>0.3103721057080656</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>83816986.1302136674680714</t>
+          <t>84119862.2897901540444957</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>-1.6321276522673720</t>
+          <t>-1.2169761003649427</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -2604,7 +2604,7 @@
         </is>
       </c>
       <c r="H58" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="59">
@@ -2625,17 +2625,17 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>0.4813552694539918</t>
+          <t>0.4815940111279182</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>103745700.6901038423020574</t>
+          <t>103957074.7922123178227966</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>0.3246189886181707</t>
+          <t>0.4118091644636182</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2644,7 +2644,7 @@
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="60">
@@ -2665,17 +2665,17 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>0.8508576725555305</t>
+          <t>0.8439908356526797</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>415040297.8732620811570894</t>
+          <t>411480169.5327688272940057</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>1.2838107193078891</t>
+          <t>1.1584790881047615</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -2684,7 +2684,7 @@
         </is>
       </c>
       <c r="H60" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="61">
@@ -2705,17 +2705,17 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10.2792383197410813</t>
+          <t>10.2914174470638251</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>1217508.4870785889144231</t>
+          <t>1216683.8478476683150634</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>-4.2130390636290026</t>
+          <t>-4.0079556186839857</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -2724,7 +2724,7 @@
         </is>
       </c>
       <c r="H61" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="62">
@@ -2741,17 +2741,17 @@
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr">
         <is>
-          <t>14.9338755492096651</t>
+          <t>14.8895679415806785</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>14858363.7724513116261852</t>
+          <t>14051487.1943232396351376</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>-0.1185698548443233</t>
+          <t>0.1438644579979632</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -2760,7 +2760,7 @@
         </is>
       </c>
       <c r="H62" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="63">
@@ -2777,17 +2777,17 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>0.6995951516544625</t>
+          <t>0.7021288200619413</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>75173817.3236268780459462</t>
+          <t>75984848.1485445226531706</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>-1.9455330180055803</t>
+          <t>-1.5492140857089737</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="H63" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="64">
@@ -2817,17 +2817,17 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>1287.7942590657757938</t>
+          <t>1290.0387381826945307</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>27377109.1597253223052899</t>
+          <t>27391612.0352656818782917</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>-1.6619337811471385</t>
+          <t>-1.3244828136826361</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2836,7 +2836,7 @@
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="65">
@@ -2857,17 +2857,17 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>0.4323269173284117</t>
+          <t>0.4331681873544833</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>66269380.3585075310707269</t>
+          <t>66373735.2136700482166548</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>-2.8460927903403177</t>
+          <t>-2.6589095829883427</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2876,7 +2876,7 @@
         </is>
       </c>
       <c r="H65" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="66">
@@ -2893,17 +2893,17 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr">
         <is>
-          <t>4.1949033464657782</t>
+          <t>4.1997510052170403</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>42801485.1673118420547645</t>
+          <t>42945306.7501838997507070</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>-6.2759372036950413</t>
+          <t>-6.1248582303232437</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="67">
@@ -2929,17 +2929,17 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
-          <t>0.0667277095610512</t>
+          <t>0.0670223494782984</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>26877605.1628252547783744</t>
+          <t>26774304.0203154293227605</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>0.6577119765427367</t>
+          <t>1.0672449256191073</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2948,7 +2948,7 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="68">
@@ -2969,17 +2969,17 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>0.3851465106838732</t>
+          <t>0.3873682600377370</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>38088685.2996268537645216</t>
+          <t>38680484.6788474708396478</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>-0.2820149391063747</t>
+          <t>0.3180912794744213</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="69">
@@ -3005,22 +3005,22 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr">
         <is>
-          <t>603.3337944966488238</t>
+          <t>604.9355513900999925</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10242295.5810794068557694</t>
+          <t>10186945.6783871940236598</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>0.4177536786911600</t>
+          <t>0.7006399519626387</t>
         </is>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="70">
@@ -3041,17 +3041,17 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>0.3897605813964300</t>
+          <t>0.3887081063907000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>53696732.1536843564784601</t>
+          <t>55411526.0531663502709599</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>-0.0847266140628771</t>
+          <t>-0.3716086341973139</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -3060,7 +3060,7 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="71">
@@ -3077,17 +3077,17 @@
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
-          <t>0.7576009273172640</t>
+          <t>0.7593803493001698</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>89294132.2884662480858444</t>
+          <t>89368347.8981107374230367</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>1.0517345237154449</t>
+          <t>1.0750359440900059</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="72">
@@ -3117,17 +3117,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>0.5812396411934291</t>
+          <t>0.5807738196463043</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>17268145.2069761681380964</t>
+          <t>17325440.3843143952461725</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>-1.8861973383475203</t>
+          <t>-1.7076812381720911</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -3136,7 +3136,7 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="73">
@@ -3153,17 +3153,17 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>0.0000108971074636</t>
+          <t>0.0000109211522157</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>70618971.6876836585416902</t>
+          <t>70722790.8920751870940426</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>-4.3928386196638694</t>
+          <t>-3.4641243435017865</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="74">
@@ -3189,98 +3189,98 @@
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr">
         <is>
-          <t>0.9973904486700141</t>
+          <t>0.9974120834202527</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>34169057.3130459655853384</t>
+          <t>35783766.2059505662231641</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>-0.0319071344452438</t>
+          <t>-0.0218304230811462</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>binaryx-new</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>FORM</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>580000000.0000000000000000</t>
+          <t>100000000.0000000000000000</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2.1749559814089651</t>
+          <t>8.3948322937652668</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>11380600.4153233454801915</t>
+          <t>40893045.2541616524901596</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>-0.3909122075854143</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr"/>
+          <t>-2.5457482852296340</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>8.3614104004802462</t>
+        </is>
+      </c>
       <c r="H75" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>binaryx-new</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>FORM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>100000000.0000000000000000</t>
+          <t>580000000.0000000000000000</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>8.3505228502079086</t>
+          <t>2.1727602829872965</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>40676004.1288185040561525</t>
+          <t>11371099.5499306253247517</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>-3.0698359480976452</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>8.3614104004802462</t>
-        </is>
-      </c>
+          <t>-0.0100549939920092</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="77">
@@ -3301,17 +3301,17 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>68.1842145608809014</t>
+          <t>68.2927279750335121</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>17204987.5687517588634413</t>
+          <t>17256895.8435715450166077</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2.9243173801804411</t>
+          <t>3.1645064765662396</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3320,7 +3320,7 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="78">
@@ -3341,17 +3341,17 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0.4629613420894756</t>
+          <t>0.4639927281631779</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>28983972.4538818394898974</t>
+          <t>29026307.4803121108599059</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>-4.8336034833534104</t>
+          <t>-4.2863644192920492</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3360,7 +3360,7 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="79">
@@ -3377,17 +3377,17 @@
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr">
         <is>
-          <t>0.0822477305691922</t>
+          <t>0.0824364594800821</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>15552392.4943102005626263</t>
+          <t>15634287.7746708463339979</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>-2.7865119540698699</t>
+          <t>-2.3674338764187370</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="80">
@@ -3413,17 +3413,17 @@
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr">
         <is>
-          <t>0.1643655552662043</t>
+          <t>0.1650129450984722</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>52797208.4306133316994457</t>
+          <t>52955581.1809358244898300</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>-1.6543761944768193</t>
+          <t>-1.1814929107549454</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="81">
@@ -3449,17 +3449,17 @@
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0.0130162489996485</t>
+          <t>0.0130307818433868</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>12437019.2329901384782136</t>
+          <t>12503437.4748789439404435</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>-2.8782479111850467</t>
+          <t>-2.5842915104229424</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3468,7 +3468,7 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="82">
@@ -3489,17 +3489,17 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>0.7793916687351255</t>
+          <t>0.7814458257020720</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>15632203.6550627106860665</t>
+          <t>15637816.4455605503415205</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>-2.7504531653023376</t>
+          <t>-2.2104380703571172</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -3508,7 +3508,7 @@
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="83">
@@ -3525,17 +3525,17 @@
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr">
         <is>
-          <t>3127.0257661125320199</t>
+          <t>3126.8278142493038892</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>24308559.4793368765594522</t>
+          <t>24303703.9123136784376243</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>-1.6082279739440959</t>
+          <t>-1.5897845419771162</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3544,7 +3544,7 @@
         </is>
       </c>
       <c r="H83" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="84">
@@ -3561,17 +3561,17 @@
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0.9999088688716483</t>
+          <t>0.9990113549185313</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>14954437.1756035032809470</t>
+          <t>12273241.2468689477276832</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>0.1654347863220956</t>
+          <t>0.0843922814205772</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3580,7 +3580,7 @@
         </is>
       </c>
       <c r="H84" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="85">
@@ -3597,17 +3597,17 @@
       <c r="C85" t="inlineStr"/>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0.8307201970545026</t>
+          <t>0.8324620218777341</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>34490788.6110410580013880</t>
+          <t>34517947.8388192935350071</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>-0.8197655482719808</t>
+          <t>-0.5589479244175191</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3616,7 +3616,7 @@
         </is>
       </c>
       <c r="H85" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="86">
@@ -3633,17 +3633,17 @@
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr">
         <is>
-          <t>1.0557749126647233</t>
+          <t>1.0550228683487167</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>4806153.0068617116091884</t>
+          <t>4848342.3244381389688564</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2.5283314133446925</t>
+          <t>2.3611966714394049</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="H86" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="87">
@@ -3673,17 +3673,17 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>0.5154495177071320</t>
+          <t>0.5193313455453565</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>132012358.0597956189250134</t>
+          <t>133595216.7874590158148924</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>-0.6085269845072800</t>
+          <t>0.2679589568154061</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="H87" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="88">
@@ -3709,17 +3709,17 @@
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr">
         <is>
-          <t>0.6485090480513932</t>
+          <t>0.6502631560919898</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>16183826.1063839972132625</t>
+          <t>15915363.7764453577646496</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>-2.1328030697565219</t>
+          <t>-1.7796822610272517</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3728,7 +3728,7 @@
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="89">
@@ -3745,17 +3745,17 @@
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3119.9530362311329914</t>
+          <t>3119.0874046395124878</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>64848201.3449101426939176</t>
+          <t>64831240.4926066190644227</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>-2.0033390057143209</t>
+          <t>-1.9457003872914036</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3764,155 +3764,155 @@
         </is>
       </c>
       <c r="H89" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>kaia</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>KAIA</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
+          <t>GALA</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>50000000000.0000000000000000</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0.1094482535602096</t>
+          <t>0.0148963613565307</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>16597249.8267698957944514</t>
+          <t>38555764.7102195238163805</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2.6764054814543138</t>
+          <t>-2.0327309594723901</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>0.1055254130447434</t>
+          <t>0.0147510890254554</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>GALA</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>50000000000.0000000000000000</t>
-        </is>
-      </c>
+          <t>KAIA</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr">
         <is>
-          <t>0.0148788872259507</t>
+          <t>0.1092079696341377</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>38541874.3043773216343586</t>
+          <t>19872443.8151863316923861</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>-2.2005684470047900</t>
+          <t>3.3240191578449399</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>0.0147510890254554</t>
+          <t>0.1055254130447434</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>berachain</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>BERA</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>6.0357690720617946</t>
+          <t>0.2617464037539771</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>123360041.1774451695888953</t>
+          <t>17853658.6862658394565185</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>-9.8721102499256620</t>
+          <t>-0.5784651789606240</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>6.2048016707670206</t>
+          <t>0.2593811432076112</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
-          <t>0.2610732359473454</t>
+          <t>6.0267980368552354</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>17802608.3525453530411660</t>
+          <t>123635761.0832332122206347</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>-1.0201531679179380</t>
+          <t>-9.5806897959868415</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>0.2593811432076112</t>
+          <t>6.2048016707670206</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="94">
@@ -3929,17 +3929,17 @@
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
-          <t>1.9809491894725304</t>
+          <t>1.9811009942171415</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>21943095.2134035006710925</t>
+          <t>22053999.3385977705524155</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>-7.7774810791092004</t>
+          <t>-7.2663620090071869</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="H94" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="95">
@@ -3965,17 +3965,17 @@
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr">
         <is>
-          <t>0.0000006275834289</t>
+          <t>0.0000006276068031</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2672549.1326792809207219</t>
+          <t>2671118.5764150783937267</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>-1.8310341347316349</t>
+          <t>-1.7055780971628424</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -3984,7 +3984,7 @@
         </is>
       </c>
       <c r="H95" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="96">
@@ -4005,17 +4005,17 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>38.8682726167078301</t>
+          <t>38.8610822679694668</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>17589606.8243598094679950</t>
+          <t>17613058.5504906196007210</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>-1.8112299388711173</t>
+          <t>-1.2714238876313818</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -4024,7 +4024,7 @@
         </is>
       </c>
       <c r="H96" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="97">
@@ -4041,17 +4041,17 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
-          <t>0.1639680861011174</t>
+          <t>0.1642022423002139</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>16218542.8556078441813787</t>
+          <t>16249884.7244877094723798</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>-1.2739294506006745</t>
+          <t>-0.9270615597615771</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -4060,7 +4060,7 @@
         </is>
       </c>
       <c r="H97" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="98">
@@ -4077,17 +4077,17 @@
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr">
         <is>
-          <t>30.5222910861393232</t>
+          <t>30.5630623058760301</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>16101837.0371350344721654</t>
+          <t>15853700.5768905162754702</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>-1.9670209388980627</t>
+          <t>-1.7795371847024244</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="99">
@@ -4113,17 +4113,17 @@
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0.3692971991273471</t>
+          <t>0.3697942894861906</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>11313506.3634687906192407</t>
+          <t>10918914.9153837308907115</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>-1.7643886359324710</t>
+          <t>-1.5371326448427121</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="H99" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="100">
@@ -4153,17 +4153,17 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>15.0700378580571582</t>
+          <t>15.0634486321073635</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>35032077.5752526558564601</t>
+          <t>34961162.0794652682697580</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>-2.2666965909155138</t>
+          <t>-1.8654871566810764</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
     <row r="101">
@@ -4193,17 +4193,17 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1.8070531610620074</t>
+          <t>1.8087889929056927</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>33374111.7189775186268324</t>
+          <t>33385706.4827202708985786</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>-3.2757015022105498</t>
+          <t>-2.9384986638576015</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="H101" t="n">
-        <v>1743732799591</v>
+        <v>1743733783063</v>
       </c>
     </row>
   </sheetData>
